--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -1,23 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+  <si>
+    <t>barID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Telefonnummer</t>
+  </si>
+  <si>
+    <t>happyHourBeschreibung</t>
+  </si>
+  <si>
+    <t>happyHourBeginn</t>
+  </si>
+  <si>
+    <t>happyHourEnde</t>
+  </si>
+  <si>
+    <t>happyHourMontag</t>
+  </si>
+  <si>
+    <t>happyHourDienstag</t>
+  </si>
+  <si>
+    <t>happyHourMittwoch</t>
+  </si>
+  <si>
+    <t>happyHourDonnerstag</t>
+  </si>
+  <si>
+    <t>happyHourFreitag</t>
+  </si>
+  <si>
+    <t>happyHourSamstag</t>
+  </si>
+  <si>
+    <t>happyHourSonntag</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,10 +85,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -46,21 +106,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,37 +410,1858 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M583"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="2"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="2"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="2"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="2"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="2"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="2"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="2"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="2"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="2"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="2"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410" s="2"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="2"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="2"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416" s="2"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417" s="2"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="2"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419" s="2"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="2"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421" s="2"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422" s="2"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423" s="2"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" s="2"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427" s="2"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428" s="2"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" s="2"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432" s="2"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" s="2"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436" s="2"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437" s="2"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B438" s="2"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B439" s="2"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440" s="2"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441" s="2"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442" s="2"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443" s="2"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444" s="2"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445" s="2"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B446" s="2"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447" s="2"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448" s="2"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B449" s="2"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B450" s="2"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B451" s="2"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B452" s="2"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B453" s="2"/>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454" s="2"/>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B455" s="2"/>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B456" s="2"/>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B457" s="2"/>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B458" s="2"/>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B459" s="2"/>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B460" s="2"/>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B461" s="2"/>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B462" s="2"/>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B463" s="2"/>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B464" s="2"/>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B465" s="2"/>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B466" s="2"/>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B467" s="2"/>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B468" s="2"/>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B469" s="2"/>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B470" s="2"/>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B471" s="2"/>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B472" s="2"/>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B473" s="2"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474" s="2"/>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B475" s="2"/>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B476" s="2"/>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B477" s="2"/>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B478" s="2"/>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B479" s="2"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B480" s="2"/>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B481" s="2"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482" s="2"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483" s="2"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484" s="2"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485" s="2"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486" s="2"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487" s="2"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488" s="2"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489" s="2"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490" s="2"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491" s="2"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492" s="2"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493" s="2"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494" s="2"/>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B495" s="2"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496" s="2"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" s="2"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498" s="2"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499" s="2"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500" s="2"/>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B501" s="2"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B502" s="2"/>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B503" s="2"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B504" s="2"/>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B505" s="2"/>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B506" s="2"/>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="2"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="2"/>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="2"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="2"/>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="2"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="2"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="2"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="2"/>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="2"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B516" s="2"/>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B517" s="2"/>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B518" s="2"/>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B519" s="2"/>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B520" s="2"/>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B521" s="2"/>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="2"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523" s="2"/>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B524" s="2"/>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B525" s="2"/>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B526" s="2"/>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B527" s="2"/>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B528" s="2"/>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B529" s="2"/>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B530" s="2"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531" s="2"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532" s="2"/>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B533" s="2"/>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B534" s="2"/>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B535" s="2"/>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B536" s="2"/>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537" s="2"/>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="2"/>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B539" s="2"/>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540" s="2"/>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B541" s="2"/>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B542" s="2"/>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B543" s="2"/>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B544" s="2"/>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545" s="2"/>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546" s="2"/>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B547" s="2"/>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B548" s="2"/>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B549" s="2"/>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B550" s="2"/>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B551" s="2"/>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B552" s="2"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="2"/>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B554" s="2"/>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B555" s="2"/>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B556" s="2"/>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B557" s="2"/>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B558" s="2"/>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B559" s="2"/>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B560" s="2"/>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B561" s="2"/>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B562" s="2"/>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B563" s="2"/>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B564" s="2"/>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B565" s="2"/>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B566" s="2"/>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B567" s="2"/>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B568" s="2"/>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B569" s="2"/>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B570" s="2"/>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B571" s="2"/>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B572" s="2"/>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B573" s="2"/>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B574" s="2"/>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" s="2"/>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" s="2"/>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="2"/>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" s="2"/>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" s="2"/>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B580" s="2"/>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" s="2"/>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B582" s="2"/>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="82">
   <si>
     <t>barID</t>
   </si>
@@ -62,6 +62,204 @@
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>Hacienda</t>
+  </si>
+  <si>
+    <t>0711 295949</t>
+  </si>
+  <si>
+    <t>4b540ef4f964a5203db127e3</t>
+  </si>
+  <si>
+    <t>Alle Longdrinks und Cocktails für 4,50€</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Carls Brauhaus</t>
+  </si>
+  <si>
+    <t>5346b3ad498e4ae9594fb6d5</t>
+  </si>
+  <si>
+    <t>5346b3ad498e4ae9594fb6d6</t>
+  </si>
+  <si>
+    <t>Alle Longdrinks und Cocktails für 4,90€; Alle Jumbo-Cocktails für 5,90€</t>
+  </si>
+  <si>
+    <t>0711 50434161</t>
+  </si>
+  <si>
+    <t>Adulis</t>
+  </si>
+  <si>
+    <t>4d31d3c82e56236ac87f16b4</t>
+  </si>
+  <si>
+    <t>Alle Cocktails für 4,90€</t>
+  </si>
+  <si>
+    <t>Hans im Glück</t>
+  </si>
+  <si>
+    <t>52e96f1511d2c981acb41845</t>
+  </si>
+  <si>
+    <t>Havanna Bar</t>
+  </si>
+  <si>
+    <t>4c9521abf244b1f7f3e0281d</t>
+  </si>
+  <si>
+    <t>Caipirinha und Mojito für 5€</t>
+  </si>
+  <si>
+    <t>0711 50437406</t>
+  </si>
+  <si>
+    <t>0711 67495300</t>
+  </si>
+  <si>
+    <t>0711 25974611</t>
+  </si>
+  <si>
+    <t>El Chico</t>
+  </si>
+  <si>
+    <t>0711 2238206</t>
+  </si>
+  <si>
+    <t>Alle Cocktails 4,50€; Jumbos 6,50€; Margaritas für 3,95€: Margarita Pitcher für 15,95€</t>
+  </si>
+  <si>
+    <t>Margaritas für 3,95€: Margarita Pitcher für 15,95€</t>
+  </si>
+  <si>
+    <t>Meyer's</t>
+  </si>
+  <si>
+    <t>0711 5532693</t>
+  </si>
+  <si>
+    <t>Abendmahl im Menü: Burger mit Fritten und Cocktail für 7,50€: Burgerpreis plus 7,50€; Geöffnet bis Ende</t>
+  </si>
+  <si>
+    <t>Wodka Lemon, Bacardi Cola, Gin Tonic, 43 Milch, Jim Beam Cola, Batida Kirsch für 4,50€; 24h geöffnet</t>
+  </si>
+  <si>
+    <t>Alle Cocktails für 5€ und Dinkelacker Privat 0,5l für 3€, 24h geöffnet</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>0711 69944006</t>
+  </si>
+  <si>
+    <t>Alle Cocktails to go für 4,99€, Geöffnet bis Ende</t>
+  </si>
+  <si>
+    <t>Alle Cocktails to go für 4,99€; Geöffnet bis Ende</t>
+  </si>
+  <si>
+    <t>Alle Cocktails für 5€</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>0711 2365511</t>
+  </si>
+  <si>
+    <t>Sausalitos</t>
+  </si>
+  <si>
+    <t>0711 25394920</t>
+  </si>
+  <si>
+    <t>Jumbo Cocktail für 5€</t>
+  </si>
+  <si>
+    <t>Alle Cocktails zum halben Preis</t>
+  </si>
+  <si>
+    <t>Jumbo Cocktail zum Preis eines normalen</t>
+  </si>
+  <si>
+    <t>Café Le Théâtre</t>
+  </si>
+  <si>
+    <t>0711 2262610</t>
+  </si>
+  <si>
+    <t>Cocktail Happy Hour Double Time</t>
+  </si>
+  <si>
+    <t>Woody's</t>
+  </si>
+  <si>
+    <t>0711 2576212</t>
+  </si>
+  <si>
+    <t>Alle Cocktails für 4,50€</t>
+  </si>
+  <si>
+    <t>Cantina</t>
+  </si>
+  <si>
+    <t>0711 2260782</t>
+  </si>
+  <si>
+    <t>Margaritas für 5€</t>
+  </si>
+  <si>
+    <t>Für Studenten alle Cocktails für 5€</t>
+  </si>
+  <si>
+    <t>Für Gruppen ab 3 Personen Cocktails für 5€</t>
+  </si>
+  <si>
+    <t>5 Cocktails zum Preis von 4</t>
+  </si>
+  <si>
+    <t>Caipirinhas für 5€</t>
+  </si>
+  <si>
+    <t>Die Note</t>
+  </si>
+  <si>
+    <t>0711 27397933</t>
+  </si>
+  <si>
+    <t>Bar du Frisco</t>
+  </si>
+  <si>
+    <t>0711 8886163</t>
+  </si>
+  <si>
+    <t>Alle Cocktails für 5,50€</t>
+  </si>
+  <si>
+    <t>Ladies Night: Alle Cocktails für 5,50€</t>
+  </si>
+  <si>
+    <t>Hotzenplotz</t>
+  </si>
+  <si>
+    <t>0711 626446</t>
+  </si>
+  <si>
+    <t>Alle Flaschenbiere 2€ (außer Echtes/Schwarzes)</t>
+  </si>
+  <si>
+    <t>Alle Getränke: Ein Großes bestellen - Ein Kleines bezahlen</t>
+  </si>
+  <si>
+    <t>Alle Cocktails und Longdrinks 1,50€ günstiger</t>
   </si>
 </sst>
 </file>
@@ -106,10 +304,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -120,14 +324,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,9 +372,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,7 +409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +444,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,18 +618,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M583"/>
+  <dimension ref="A1:M577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
@@ -518,141 +726,1065 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F34" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F39" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F40" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F41" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -2241,24 +3373,6 @@
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B577" s="2"/>
-    </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B578" s="2"/>
-    </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B579" s="2"/>
-    </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B580" s="2"/>
-    </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B581" s="2"/>
-    </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B582" s="2"/>
-    </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B583" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="94">
   <si>
     <t>barID</t>
   </si>
@@ -235,9 +235,6 @@
     <t>0711 27397933</t>
   </si>
   <si>
-    <t>Bar du Frisco</t>
-  </si>
-  <si>
     <t>0711 8886163</t>
   </si>
   <si>
@@ -260,6 +257,45 @@
   </si>
   <si>
     <t>Alle Cocktails und Longdrinks 1,50€ günstiger</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>5001a910e4b0d8ae05eec43f</t>
+  </si>
+  <si>
+    <t>4c9513a258d4b60c93e12e29</t>
+  </si>
+  <si>
+    <t>4c87654b47cc224b99a4b09f</t>
+  </si>
+  <si>
+    <t>4b7ee121f964a520590630e3</t>
+  </si>
+  <si>
+    <t>4e0e11c27d8bb178a8a53262</t>
+  </si>
+  <si>
+    <t>4bd89025f645c9b6ab47a8e0</t>
+  </si>
+  <si>
+    <t>4b771002f964a52062792ee3</t>
+  </si>
+  <si>
+    <t>4c2a4e48355cef3b27facc56</t>
+  </si>
+  <si>
+    <t>4fe4bdd5e4b0d43f1fceec16</t>
+  </si>
+  <si>
+    <t>Bar di Frisco</t>
+  </si>
+  <si>
+    <t>4e6f30be52b1706317b5b8f6</t>
+  </si>
+  <si>
+    <t>4b7d9923f964a520f4c82fe3</t>
   </si>
 </sst>
 </file>
@@ -304,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -313,7 +349,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -621,9 +656,9 @@
   <dimension ref="A1:M577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A41"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,6 +933,9 @@
       <c r="E8" s="5">
         <v>0.70833333333333337</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
@@ -965,6 +1003,9 @@
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
       <c r="D10" t="s">
         <v>39</v>
       </c>
@@ -1003,6 +1044,9 @@
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
@@ -1035,6 +1079,9 @@
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
@@ -1058,6 +1105,9 @@
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
@@ -1078,6 +1128,9 @@
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
       <c r="D14" t="s">
         <v>44</v>
       </c>
@@ -1104,11 +1157,17 @@
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
       <c r="D15" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="5">
         <v>0.45833333333333331</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -1133,11 +1192,17 @@
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="5">
         <v>0.5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
@@ -1153,11 +1218,17 @@
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="5">
         <v>0.70833333333333337</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -1170,6 +1241,9 @@
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
@@ -1205,6 +1279,9 @@
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" t="s">
         <v>55</v>
       </c>
@@ -1243,6 +1320,9 @@
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
       <c r="D20" t="s">
         <v>56</v>
       </c>
@@ -1275,6 +1355,9 @@
       <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
       <c r="D21" t="s">
         <v>56</v>
       </c>
@@ -1298,6 +1381,9 @@
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
       <c r="D22" t="s">
         <v>57</v>
       </c>
@@ -1327,6 +1413,9 @@
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
       <c r="D23" t="s">
         <v>57</v>
       </c>
@@ -1350,6 +1439,9 @@
       <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
@@ -1370,6 +1462,9 @@
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
       <c r="D25" t="s">
         <v>60</v>
       </c>
@@ -1402,6 +1497,9 @@
       <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
       <c r="D26" t="s">
         <v>63</v>
       </c>
@@ -1434,6 +1532,9 @@
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
       <c r="D27" t="s">
         <v>63</v>
       </c>
@@ -1454,6 +1555,9 @@
       <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
       <c r="D28" t="s">
         <v>63</v>
       </c>
@@ -1474,6 +1578,9 @@
       <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
       <c r="D29" t="s">
         <v>50</v>
       </c>
@@ -1512,6 +1619,9 @@
       <c r="B30" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
       <c r="D30" t="s">
         <v>66</v>
       </c>
@@ -1532,6 +1642,9 @@
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
       <c r="D31" t="s">
         <v>50</v>
       </c>
@@ -1552,6 +1665,9 @@
       <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
       <c r="D32" t="s">
         <v>67</v>
       </c>
@@ -1572,6 +1688,9 @@
       <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
       <c r="D33" t="s">
         <v>68</v>
       </c>
@@ -1592,6 +1711,9 @@
       <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
       <c r="D34" t="s">
         <v>69</v>
       </c>
@@ -1615,6 +1737,9 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
       <c r="D35" t="s">
         <v>70</v>
       </c>
@@ -1635,6 +1760,9 @@
       <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
@@ -1650,13 +1778,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
         <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
       </c>
       <c r="E37" s="5">
         <v>0.75</v>
@@ -1688,19 +1819,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
+      <c r="C38" t="s">
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="5">
         <v>0.75</v>
       </c>
-      <c r="F38" s="6">
-        <v>1</v>
+      <c r="F38" s="5">
+        <v>0</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -1708,13 +1842,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
         <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
       </c>
       <c r="E39" s="5">
         <v>0.95833333333333337</v>
@@ -1728,13 +1865,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
+      <c r="C40" t="s">
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="5">
         <v>0.95833333333333337</v>
@@ -1748,13 +1888,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>78</v>
+      <c r="C41" t="s">
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="5">
         <v>0.95833333333333337</v>

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="145">
   <si>
     <t>barID</t>
   </si>
@@ -296,6 +296,159 @@
   </si>
   <si>
     <t>4b7d9923f964a520f4c82fe3</t>
+  </si>
+  <si>
+    <t>Sonderbar</t>
+  </si>
+  <si>
+    <t>4fd3c409e4b0b56918f8acf4</t>
+  </si>
+  <si>
+    <t>0711 7210</t>
+  </si>
+  <si>
+    <t>Alle Cocktails - 2 für 1</t>
+  </si>
+  <si>
+    <t>Perkins Park</t>
+  </si>
+  <si>
+    <t>4b4ce968f964a520efc326e3</t>
+  </si>
+  <si>
+    <t>0711 2560062</t>
+  </si>
+  <si>
+    <t>Alle Getränke zum halben Preis (außer Jahrgangschampagner und Cocktails)</t>
+  </si>
+  <si>
+    <t>4bb10b3ff964a52060753ce3</t>
+  </si>
+  <si>
+    <t>Joe Pena´s</t>
+  </si>
+  <si>
+    <t>0711 2296211</t>
+  </si>
+  <si>
+    <t>Zur Late Night Hour alle Cocktails für 4,90€</t>
+  </si>
+  <si>
+    <t>7 Grad</t>
+  </si>
+  <si>
+    <t>4b93069af964a520b52f34e3</t>
+  </si>
+  <si>
+    <t>0711 48983925</t>
+  </si>
+  <si>
+    <t>Bier 0,3l für 2€</t>
+  </si>
+  <si>
+    <t>Alle Shots für 2€</t>
+  </si>
+  <si>
+    <t>Cocktails &amp; Longdrinks 4€</t>
+  </si>
+  <si>
+    <t>2 Bier zum Preis von einem</t>
+  </si>
+  <si>
+    <t>Classic Rock</t>
+  </si>
+  <si>
+    <t>0711 2348858</t>
+  </si>
+  <si>
+    <t>4b07024af964a5204bf522e3</t>
+  </si>
+  <si>
+    <t>4b5636ddf964a520a60528e3</t>
+  </si>
+  <si>
+    <t>0711 6159147</t>
+  </si>
+  <si>
+    <t>Alle Cocktails to go für 4,99€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+  </si>
+  <si>
+    <t>4b7d87fcf964a520d9c42fe3</t>
+  </si>
+  <si>
+    <t>Café Felix</t>
+  </si>
+  <si>
+    <t>0711 9978784</t>
+  </si>
+  <si>
+    <t>4bfad0fa328d76b0b5ff14ec</t>
+  </si>
+  <si>
+    <t>Todis</t>
+  </si>
+  <si>
+    <t>0711 2293307</t>
+  </si>
+  <si>
+    <t>Gaffel Kölsch für 1 €</t>
+  </si>
+  <si>
+    <t>Wulle Bier für 2 €</t>
+  </si>
+  <si>
+    <t>4b59578af964a5209e8528e3</t>
+  </si>
+  <si>
+    <t>Biddy Early´s Irish Pub</t>
+  </si>
+  <si>
+    <t>0711 6159853</t>
+  </si>
+  <si>
+    <t>Schillerhaus</t>
+  </si>
+  <si>
+    <t>53d79e15498e78919bff7f94</t>
+  </si>
+  <si>
+    <t>Alle Cocktails für 5,90€</t>
+  </si>
+  <si>
+    <t>Alle Kurze für 1,50€</t>
+  </si>
+  <si>
+    <t>0711 52854121</t>
+  </si>
+  <si>
+    <t>4c62e08158810f473e45081e</t>
+  </si>
+  <si>
+    <t>Biergarten Eimer</t>
+  </si>
+  <si>
+    <t>0711 9977733</t>
+  </si>
+  <si>
+    <t>Espresso für 0,99€</t>
+  </si>
+  <si>
+    <t> Jägi für 0,99€</t>
+  </si>
+  <si>
+    <t>Kölsch für 0,99€</t>
+  </si>
+  <si>
+    <t>Ficken für 0,99€</t>
+  </si>
+  <si>
+    <t>Geeister Lambrusco für 0,99€</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -340,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -349,6 +502,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -367,9 +524,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -407,9 +564,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,7 +601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +636,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,12 +810,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M577"/>
+  <dimension ref="A1:M576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,6 +948,15 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
+      <c r="K3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -814,11 +980,23 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
+      <c r="H4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" t="s">
+        <v>144</v>
+      </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -849,6 +1027,15 @@
       <c r="I5" t="s">
         <v>20</v>
       </c>
+      <c r="J5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" t="s">
+        <v>144</v>
+      </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
@@ -872,6 +1059,15 @@
       <c r="F6" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>144</v>
+      </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
@@ -880,6 +1076,9 @@
       </c>
       <c r="L6" t="s">
         <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -913,6 +1112,12 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
+      <c r="K7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" t="s">
+        <v>144</v>
+      </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
@@ -995,6 +1200,9 @@
       <c r="L9" t="s">
         <v>20</v>
       </c>
+      <c r="M9" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1068,6 +1276,12 @@
       <c r="J11" t="s">
         <v>20</v>
       </c>
+      <c r="K11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s">
+        <v>144</v>
+      </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
@@ -1091,11 +1305,26 @@
       <c r="F12" s="5">
         <v>0.125</v>
       </c>
+      <c r="G12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" t="s">
+        <v>144</v>
+      </c>
       <c r="K12" t="s">
         <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1117,6 +1346,24 @@
       <c r="F13" s="5">
         <v>0</v>
       </c>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
       <c r="M13" t="s">
         <v>20</v>
       </c>
@@ -1149,6 +1396,18 @@
       <c r="I14" t="s">
         <v>20</v>
       </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1184,6 +1443,12 @@
       <c r="K15" t="s">
         <v>20</v>
       </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1204,6 +1469,21 @@
       <c r="F16" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
       <c r="L16" t="s">
         <v>20</v>
       </c>
@@ -1230,8 +1510,26 @@
       <c r="F17" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
       <c r="J17" t="s">
         <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1253,6 +1551,9 @@
       <c r="F18" s="5">
         <v>0.91666666666666663</v>
       </c>
+      <c r="G18" t="s">
+        <v>144</v>
+      </c>
       <c r="H18" t="s">
         <v>20</v>
       </c>
@@ -1344,6 +1645,12 @@
       <c r="J20" t="s">
         <v>20</v>
       </c>
+      <c r="K20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
       <c r="M20" t="s">
         <v>20</v>
       </c>
@@ -1367,11 +1674,26 @@
       <c r="F21" s="5">
         <v>0.83333333333333337</v>
       </c>
+      <c r="G21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" t="s">
+        <v>144</v>
+      </c>
       <c r="K21" t="s">
         <v>20</v>
       </c>
       <c r="L21" t="s">
         <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1405,6 +1727,15 @@
       <c r="J22" t="s">
         <v>20</v>
       </c>
+      <c r="K22" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1425,11 +1756,26 @@
       <c r="F23" s="5">
         <v>0.16666666666666666</v>
       </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" t="s">
+        <v>144</v>
+      </c>
       <c r="K23" t="s">
         <v>20</v>
       </c>
       <c r="L23" t="s">
         <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1451,6 +1797,24 @@
       <c r="F24" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" t="s">
+        <v>144</v>
+      </c>
       <c r="M24" t="s">
         <v>20</v>
       </c>
@@ -1486,6 +1850,12 @@
       <c r="J25" t="s">
         <v>20</v>
       </c>
+      <c r="K25" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" t="s">
+        <v>144</v>
+      </c>
       <c r="M25" t="s">
         <v>20</v>
       </c>
@@ -1524,6 +1894,12 @@
       <c r="K26" t="s">
         <v>20</v>
       </c>
+      <c r="L26" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1544,8 +1920,26 @@
       <c r="F27" s="5">
         <v>0.79166666666666663</v>
       </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" t="s">
+        <v>144</v>
+      </c>
       <c r="L27" t="s">
         <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1567,6 +1961,24 @@
       <c r="F28" s="5">
         <v>0.79166666666666663</v>
       </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" t="s">
+        <v>144</v>
+      </c>
       <c r="M28" t="s">
         <v>20</v>
       </c>
@@ -1634,6 +2046,24 @@
       <c r="G30" t="s">
         <v>20</v>
       </c>
+      <c r="H30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1654,8 +2084,26 @@
       <c r="F31" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G31" t="s">
+        <v>144</v>
+      </c>
       <c r="H31" t="s">
         <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" t="s">
+        <v>144</v>
+      </c>
+      <c r="M31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1677,8 +2125,26 @@
       <c r="F32" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
       <c r="I32" t="s">
         <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1700,8 +2166,26 @@
       <c r="F33" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>144</v>
+      </c>
       <c r="J33" t="s">
         <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>144</v>
+      </c>
+      <c r="L33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1723,11 +2207,26 @@
       <c r="F34" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" t="s">
+        <v>144</v>
+      </c>
       <c r="K34" t="s">
         <v>20</v>
       </c>
       <c r="L34" t="s">
         <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1749,6 +2248,24 @@
       <c r="F35" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G35" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35" t="s">
+        <v>144</v>
+      </c>
       <c r="M35" t="s">
         <v>20</v>
       </c>
@@ -1772,8 +2289,26 @@
       <c r="F36" s="5">
         <v>0.83333333333333337</v>
       </c>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>144</v>
+      </c>
       <c r="J36" t="s">
         <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>144</v>
+      </c>
+      <c r="L36" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1836,8 +2371,26 @@
       <c r="F38" s="5">
         <v>0</v>
       </c>
+      <c r="G38" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
       <c r="I38" t="s">
         <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -1859,8 +2412,26 @@
       <c r="F39" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="G39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" t="s">
+        <v>144</v>
+      </c>
+      <c r="K39" t="s">
+        <v>144</v>
+      </c>
       <c r="L39" t="s">
         <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -1882,8 +2453,26 @@
       <c r="F40" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="G40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" t="s">
+        <v>144</v>
+      </c>
       <c r="L40" t="s">
         <v>20</v>
+      </c>
+      <c r="M40" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -1905,125 +2494,1098 @@
       <c r="F41" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="G41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41" t="s">
+        <v>144</v>
+      </c>
       <c r="L41" t="s">
         <v>20</v>
       </c>
+      <c r="M41" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="G42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>144</v>
+      </c>
+      <c r="L42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M42" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43" t="s">
+        <v>144</v>
+      </c>
+      <c r="L43" t="s">
+        <v>144</v>
+      </c>
+      <c r="M43" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F45" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s">
+        <v>144</v>
+      </c>
+      <c r="L45" t="s">
+        <v>144</v>
+      </c>
+      <c r="M45" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F46" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J46" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F47" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" t="s">
+        <v>144</v>
+      </c>
+      <c r="K47" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" t="s">
+        <v>144</v>
+      </c>
+      <c r="M47" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>144</v>
+      </c>
+      <c r="K51" t="s">
+        <v>144</v>
+      </c>
+      <c r="L51" t="s">
+        <v>144</v>
+      </c>
+      <c r="M51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F52" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" t="s">
+        <v>144</v>
+      </c>
+      <c r="L52" t="s">
+        <v>144</v>
+      </c>
+      <c r="M52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F53" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" t="s">
+        <v>144</v>
+      </c>
+      <c r="J53" t="s">
+        <v>144</v>
+      </c>
+      <c r="K53" t="s">
+        <v>144</v>
+      </c>
+      <c r="L53" t="s">
+        <v>144</v>
+      </c>
+      <c r="M53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="G54" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" t="s">
+        <v>144</v>
+      </c>
+      <c r="J54" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" t="s">
+        <v>119</v>
+      </c>
+      <c r="L54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F55" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" t="s">
+        <v>144</v>
+      </c>
+      <c r="I55" t="s">
+        <v>144</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>144</v>
+      </c>
+      <c r="L55" t="s">
+        <v>144</v>
+      </c>
+      <c r="M55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F56" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>144</v>
+      </c>
+      <c r="K56" t="s">
+        <v>144</v>
+      </c>
+      <c r="L56" t="s">
+        <v>144</v>
+      </c>
+      <c r="M56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>144</v>
+      </c>
+      <c r="M59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="G60" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" t="s">
+        <v>144</v>
+      </c>
+      <c r="I60" t="s">
+        <v>144</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s">
+        <v>144</v>
+      </c>
+      <c r="L60" t="s">
+        <v>144</v>
+      </c>
+      <c r="M60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H61" t="s">
+        <v>144</v>
+      </c>
+      <c r="I61" t="s">
+        <v>144</v>
+      </c>
+      <c r="J61" t="s">
+        <v>144</v>
+      </c>
+      <c r="K61" t="s">
+        <v>144</v>
+      </c>
+      <c r="L61" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F62" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>144</v>
+      </c>
+      <c r="I62" t="s">
+        <v>144</v>
+      </c>
+      <c r="J62" t="s">
+        <v>144</v>
+      </c>
+      <c r="K62" t="s">
+        <v>144</v>
+      </c>
+      <c r="L62" t="s">
+        <v>144</v>
+      </c>
+      <c r="M62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F63" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>144</v>
+      </c>
+      <c r="J63" t="s">
+        <v>144</v>
+      </c>
+      <c r="K63" t="s">
+        <v>144</v>
+      </c>
+      <c r="L63" t="s">
+        <v>144</v>
+      </c>
+      <c r="M63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F64" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" t="s">
+        <v>144</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>144</v>
+      </c>
+      <c r="K64" t="s">
+        <v>144</v>
+      </c>
+      <c r="L64" t="s">
+        <v>144</v>
+      </c>
+      <c r="M64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F65" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" t="s">
+        <v>144</v>
+      </c>
+      <c r="I65" t="s">
+        <v>144</v>
+      </c>
+      <c r="J65" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s">
+        <v>144</v>
+      </c>
+      <c r="L65" t="s">
+        <v>144</v>
+      </c>
+      <c r="M65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="G66" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" t="s">
+        <v>144</v>
+      </c>
+      <c r="I66" t="s">
+        <v>144</v>
+      </c>
+      <c r="J66" t="s">
+        <v>144</v>
+      </c>
+      <c r="K66" t="s">
+        <v>144</v>
+      </c>
+      <c r="L66" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
@@ -3513,9 +5075,6 @@
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B576" s="2"/>
-    </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B577" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="197">
   <si>
     <t>barID</t>
   </si>
@@ -449,6 +449,162 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>California Bounge</t>
+  </si>
+  <si>
+    <t>0711 2260874</t>
+  </si>
+  <si>
+    <t>4b8070a1f964a520807230e3</t>
+  </si>
+  <si>
+    <t>Penthouse</t>
+  </si>
+  <si>
+    <t>0711 5507222</t>
+  </si>
+  <si>
+    <t>4b4ce9f9f964a52004c426e3</t>
+  </si>
+  <si>
+    <t>Mineralwasser, Cola, Prosecco und Bier vom Fass for FREE</t>
+  </si>
+  <si>
+    <t>Drinks für 1€</t>
+  </si>
+  <si>
+    <t>Enchilada</t>
+  </si>
+  <si>
+    <t>0711 2365974</t>
+  </si>
+  <si>
+    <t>4b9179c3f964a52067bf33e3</t>
+  </si>
+  <si>
+    <t>Alle Cocktails zum halben Preis, Jumbos für 5,90€</t>
+  </si>
+  <si>
+    <t>Enchilada Hour: Alle Margaritas für die Hälfte. Alle Jumbos für nur 5,90€</t>
+  </si>
+  <si>
+    <t>Wirtshaus Troll</t>
+  </si>
+  <si>
+    <t>0711 611761</t>
+  </si>
+  <si>
+    <t>4b89540bf964a520fa2b32e3</t>
+  </si>
+  <si>
+    <t>Jedes Becks für 2€</t>
+  </si>
+  <si>
+    <t>Jeder Jägermeister für 0,99€</t>
+  </si>
+  <si>
+    <t>3 Meter Bier trinken, 2 bezahlen</t>
+  </si>
+  <si>
+    <t>Altbier und Guiness - 2 für 1</t>
+  </si>
+  <si>
+    <t>Thirty Nine &amp;  Hoons</t>
+  </si>
+  <si>
+    <t>0711 50437940</t>
+  </si>
+  <si>
+    <t>4c153503a9c220a1f1c5589d</t>
+  </si>
+  <si>
+    <t>Viele Cocktails für 4,90€</t>
+  </si>
+  <si>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t>0711 25515959</t>
+  </si>
+  <si>
+    <t>4ce58b9c9bbf6ea8d3e9c8af</t>
+  </si>
+  <si>
+    <t>Stgt. Hofbräu 0,5L, Wulle, Becks für 2€</t>
+  </si>
+  <si>
+    <t>Caipi und Aperol Spritz für 3,80€</t>
+  </si>
+  <si>
+    <t>Alle Getränke zum halben Preis (ausgenommen Cocktails und Falschengetränke)</t>
+  </si>
+  <si>
+    <t>Licor 43 mit Milch und Jacky Cola für 4€, Weinschorle für 2€</t>
+  </si>
+  <si>
+    <t>Shots für 2€, Flying Hirsch 3,50€, 10 Jägermeister-Shots für 12€</t>
+  </si>
+  <si>
+    <t>6 Flaschen Desperados für 14,50€, 10 Tequilas für 10€</t>
+  </si>
+  <si>
+    <t>Besitos</t>
+  </si>
+  <si>
+    <t>0711 4898430</t>
+  </si>
+  <si>
+    <t>4b50a524f964a5201a2b27e3</t>
+  </si>
+  <si>
+    <t>alle Jumbo-Cocktails der Karte für 5,50€</t>
+  </si>
+  <si>
+    <t>Chicago Lounge</t>
+  </si>
+  <si>
+    <t>0711 51886904</t>
+  </si>
+  <si>
+    <t>4ca097cf03133704c3f07bd5</t>
+  </si>
+  <si>
+    <t>Jugendherberge Stuttgart International</t>
+  </si>
+  <si>
+    <t>0711 6647470</t>
+  </si>
+  <si>
+    <t>4ba3d1a2f964a520e96238e3</t>
+  </si>
+  <si>
+    <t>0711 87038617</t>
+  </si>
+  <si>
+    <t>53467e5c498e2a27d2dbdf2b</t>
+  </si>
+  <si>
+    <t>Burger mit Fritten und Cockail: Burgerpreis plus 7,50 €</t>
+  </si>
+  <si>
+    <t>Sophies Brauhaus</t>
+  </si>
+  <si>
+    <t>0711 610962</t>
+  </si>
+  <si>
+    <t>4b7592cdf964a5203b152ee3</t>
+  </si>
+  <si>
+    <t>Selbstgebrautes naturtrübes Bier - großes Bier zum kleinen Preis</t>
+  </si>
+  <si>
+    <t>Zu jedem Bier eine frische Brezel gratis dazu</t>
+  </si>
+  <si>
+    <t>Sophies Hausbräu im Pitcher zum Sonderpreis</t>
   </si>
 </sst>
 </file>
@@ -524,9 +680,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -564,9 +720,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,7 +757,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,7 +792,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -810,12 +966,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M576"/>
+  <dimension ref="A1:M574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,98 +3698,1043 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" t="s">
+        <v>144</v>
+      </c>
+      <c r="J68" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s">
+        <v>144</v>
+      </c>
+      <c r="L68" t="s">
+        <v>144</v>
+      </c>
+      <c r="M68" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69" t="s">
+        <v>144</v>
+      </c>
+      <c r="J69" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s">
+        <v>144</v>
+      </c>
+      <c r="L69" t="s">
+        <v>144</v>
+      </c>
+      <c r="M69" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="F71" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" t="s">
+        <v>144</v>
+      </c>
+      <c r="I71" t="s">
+        <v>144</v>
+      </c>
+      <c r="J71" t="s">
+        <v>144</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="F72" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s">
+        <v>144</v>
+      </c>
+      <c r="L72" t="s">
+        <v>144</v>
+      </c>
+      <c r="M72" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F73" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>144</v>
+      </c>
+      <c r="I73" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" t="s">
+        <v>144</v>
+      </c>
+      <c r="K73" t="s">
+        <v>144</v>
+      </c>
+      <c r="L73" t="s">
+        <v>144</v>
+      </c>
+      <c r="M73" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F74" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74" t="s">
+        <v>144</v>
+      </c>
+      <c r="K74" t="s">
+        <v>144</v>
+      </c>
+      <c r="L74" t="s">
+        <v>144</v>
+      </c>
+      <c r="M74" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="D75" s="6"/>
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F75" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>144</v>
+      </c>
+      <c r="H75" t="s">
+        <v>144</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>144</v>
+      </c>
+      <c r="K75" t="s">
+        <v>144</v>
+      </c>
+      <c r="L75" t="s">
+        <v>144</v>
+      </c>
+      <c r="M75" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="D76" s="6"/>
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>144</v>
+      </c>
+      <c r="H76" t="s">
+        <v>144</v>
+      </c>
+      <c r="I76" t="s">
+        <v>144</v>
+      </c>
+      <c r="J76" t="s">
+        <v>144</v>
+      </c>
+      <c r="K76" t="s">
+        <v>144</v>
+      </c>
+      <c r="L76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="D77" s="6"/>
+      <c r="A77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" t="s">
+        <v>144</v>
+      </c>
+      <c r="L77" t="s">
+        <v>144</v>
+      </c>
+      <c r="M77" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G78" t="s">
+        <v>144</v>
+      </c>
+      <c r="H78" t="s">
+        <v>144</v>
+      </c>
+      <c r="I78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J78" t="s">
+        <v>144</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
+      <c r="A79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>144</v>
+      </c>
+      <c r="I79" t="s">
+        <v>144</v>
+      </c>
+      <c r="J79" t="s">
+        <v>144</v>
+      </c>
+      <c r="K79" t="s">
+        <v>144</v>
+      </c>
+      <c r="L79" t="s">
+        <v>144</v>
+      </c>
+      <c r="M79" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G80" t="s">
+        <v>144</v>
+      </c>
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s">
+        <v>144</v>
+      </c>
+      <c r="J80" t="s">
+        <v>144</v>
+      </c>
+      <c r="K80" t="s">
+        <v>144</v>
+      </c>
+      <c r="L80" t="s">
+        <v>144</v>
+      </c>
+      <c r="M80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G81" t="s">
+        <v>144</v>
+      </c>
+      <c r="H81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
+        <v>144</v>
+      </c>
+      <c r="K81" t="s">
+        <v>144</v>
+      </c>
+      <c r="L81" t="s">
+        <v>144</v>
+      </c>
+      <c r="M81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H82" t="s">
+        <v>144</v>
+      </c>
+      <c r="I82" t="s">
+        <v>144</v>
+      </c>
+      <c r="J82" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" t="s">
+        <v>144</v>
+      </c>
+      <c r="L82" t="s">
+        <v>144</v>
+      </c>
+      <c r="M82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G83" t="s">
+        <v>144</v>
+      </c>
+      <c r="H83" t="s">
+        <v>144</v>
+      </c>
+      <c r="I83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J83" t="s">
+        <v>144</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s">
+        <v>144</v>
+      </c>
+      <c r="M83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G84" t="s">
+        <v>144</v>
+      </c>
+      <c r="H84" t="s">
+        <v>144</v>
+      </c>
+      <c r="I84" t="s">
+        <v>144</v>
+      </c>
+      <c r="J84" t="s">
+        <v>144</v>
+      </c>
+      <c r="K84" t="s">
+        <v>144</v>
+      </c>
+      <c r="L84" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" t="s">
+        <v>144</v>
+      </c>
+      <c r="L86" t="s">
+        <v>144</v>
+      </c>
+      <c r="M86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" t="s">
+        <v>144</v>
+      </c>
+      <c r="M89" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F90" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>144</v>
+      </c>
+      <c r="I90" t="s">
+        <v>144</v>
+      </c>
+      <c r="J90" t="s">
+        <v>144</v>
+      </c>
+      <c r="K90" t="s">
+        <v>144</v>
+      </c>
+      <c r="L90" t="s">
+        <v>144</v>
+      </c>
+      <c r="M90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F91" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>144</v>
+      </c>
+      <c r="H91" t="s">
+        <v>144</v>
+      </c>
+      <c r="I91" t="s">
+        <v>144</v>
+      </c>
+      <c r="J91" t="s">
+        <v>144</v>
+      </c>
+      <c r="K91" t="s">
+        <v>20</v>
+      </c>
+      <c r="L91" t="s">
+        <v>144</v>
+      </c>
+      <c r="M91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
@@ -5069,12 +6170,6 @@
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B574" s="2"/>
-    </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B575" s="2"/>
-    </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B576" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="152">
   <si>
     <t>barID</t>
   </si>
@@ -298,313 +298,178 @@
     <t>4b7d9923f964a520f4c82fe3</t>
   </si>
   <si>
-    <t>Sonderbar</t>
-  </si>
-  <si>
-    <t>4fd3c409e4b0b56918f8acf4</t>
-  </si>
-  <si>
-    <t>0711 7210</t>
-  </si>
-  <si>
-    <t>Alle Cocktails - 2 für 1</t>
-  </si>
-  <si>
-    <t>Perkins Park</t>
-  </si>
-  <si>
-    <t>4b4ce968f964a520efc326e3</t>
-  </si>
-  <si>
-    <t>0711 2560062</t>
-  </si>
-  <si>
-    <t>Alle Getränke zum halben Preis (außer Jahrgangschampagner und Cocktails)</t>
-  </si>
-  <si>
-    <t>4bb10b3ff964a52060753ce3</t>
-  </si>
-  <si>
-    <t>Joe Pena´s</t>
-  </si>
-  <si>
-    <t>0711 2296211</t>
-  </si>
-  <si>
-    <t>Zur Late Night Hour alle Cocktails für 4,90€</t>
-  </si>
-  <si>
-    <t>7 Grad</t>
-  </si>
-  <si>
-    <t>4b93069af964a520b52f34e3</t>
-  </si>
-  <si>
-    <t>0711 48983925</t>
-  </si>
-  <si>
-    <t>Bier 0,3l für 2€</t>
-  </si>
-  <si>
-    <t>Alle Shots für 2€</t>
-  </si>
-  <si>
-    <t>Cocktails &amp; Longdrinks 4€</t>
-  </si>
-  <si>
-    <t>2 Bier zum Preis von einem</t>
-  </si>
-  <si>
-    <t>Classic Rock</t>
-  </si>
-  <si>
-    <t>0711 2348858</t>
-  </si>
-  <si>
-    <t>4b07024af964a5204bf522e3</t>
-  </si>
-  <si>
-    <t>4b5636ddf964a520a60528e3</t>
-  </si>
-  <si>
-    <t>0711 6159147</t>
-  </si>
-  <si>
-    <t>Alle Cocktails to go für 4,99€</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true </t>
-  </si>
-  <si>
-    <t>4b7d87fcf964a520d9c42fe3</t>
-  </si>
-  <si>
-    <t>Café Felix</t>
-  </si>
-  <si>
-    <t>0711 9978784</t>
-  </si>
-  <si>
-    <t>4bfad0fa328d76b0b5ff14ec</t>
-  </si>
-  <si>
-    <t>Todis</t>
-  </si>
-  <si>
-    <t>0711 2293307</t>
-  </si>
-  <si>
-    <t>Gaffel Kölsch für 1 €</t>
-  </si>
-  <si>
-    <t>Wulle Bier für 2 €</t>
-  </si>
-  <si>
-    <t>4b59578af964a5209e8528e3</t>
-  </si>
-  <si>
-    <t>Biddy Early´s Irish Pub</t>
-  </si>
-  <si>
-    <t>0711 6159853</t>
-  </si>
-  <si>
-    <t>Schillerhaus</t>
-  </si>
-  <si>
-    <t>53d79e15498e78919bff7f94</t>
-  </si>
-  <si>
-    <t>Alle Cocktails für 5,90€</t>
-  </si>
-  <si>
-    <t>Alle Kurze für 1,50€</t>
-  </si>
-  <si>
-    <t>0711 52854121</t>
-  </si>
-  <si>
-    <t>4c62e08158810f473e45081e</t>
-  </si>
-  <si>
-    <t>Biergarten Eimer</t>
-  </si>
-  <si>
-    <t>0711 9977733</t>
-  </si>
-  <si>
-    <t>Espresso für 0,99€</t>
-  </si>
-  <si>
-    <t> Jägi für 0,99€</t>
-  </si>
-  <si>
-    <t>Kölsch für 0,99€</t>
-  </si>
-  <si>
-    <t>Ficken für 0,99€</t>
-  </si>
-  <si>
-    <t>Geeister Lambrusco für 0,99€</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>California Bounge</t>
-  </si>
-  <si>
-    <t>0711 2260874</t>
-  </si>
-  <si>
-    <t>4b8070a1f964a520807230e3</t>
-  </si>
-  <si>
-    <t>Penthouse</t>
-  </si>
-  <si>
-    <t>0711 5507222</t>
-  </si>
-  <si>
-    <t>4b4ce9f9f964a52004c426e3</t>
-  </si>
-  <si>
-    <t>Mineralwasser, Cola, Prosecco und Bier vom Fass for FREE</t>
-  </si>
-  <si>
-    <t>Drinks für 1€</t>
-  </si>
-  <si>
-    <t>Enchilada</t>
-  </si>
-  <si>
-    <t>0711 2365974</t>
-  </si>
-  <si>
-    <t>4b9179c3f964a52067bf33e3</t>
-  </si>
-  <si>
-    <t>Alle Cocktails zum halben Preis, Jumbos für 5,90€</t>
-  </si>
-  <si>
-    <t>Enchilada Hour: Alle Margaritas für die Hälfte. Alle Jumbos für nur 5,90€</t>
-  </si>
-  <si>
-    <t>Wirtshaus Troll</t>
-  </si>
-  <si>
-    <t>0711 611761</t>
-  </si>
-  <si>
-    <t>4b89540bf964a520fa2b32e3</t>
-  </si>
-  <si>
-    <t>Jedes Becks für 2€</t>
-  </si>
-  <si>
-    <t>Jeder Jägermeister für 0,99€</t>
-  </si>
-  <si>
-    <t>3 Meter Bier trinken, 2 bezahlen</t>
-  </si>
-  <si>
-    <t>Altbier und Guiness - 2 für 1</t>
-  </si>
-  <si>
-    <t>Thirty Nine &amp;  Hoons</t>
-  </si>
-  <si>
-    <t>0711 50437940</t>
-  </si>
-  <si>
-    <t>4c153503a9c220a1f1c5589d</t>
-  </si>
-  <si>
-    <t>Viele Cocktails für 4,90€</t>
-  </si>
-  <si>
-    <t>Silence</t>
-  </si>
-  <si>
-    <t>0711 25515959</t>
-  </si>
-  <si>
-    <t>4ce58b9c9bbf6ea8d3e9c8af</t>
-  </si>
-  <si>
-    <t>Stgt. Hofbräu 0,5L, Wulle, Becks für 2€</t>
-  </si>
-  <si>
-    <t>Caipi und Aperol Spritz für 3,80€</t>
-  </si>
-  <si>
-    <t>Alle Getränke zum halben Preis (ausgenommen Cocktails und Falschengetränke)</t>
-  </si>
-  <si>
-    <t>Licor 43 mit Milch und Jacky Cola für 4€, Weinschorle für 2€</t>
-  </si>
-  <si>
-    <t>Shots für 2€, Flying Hirsch 3,50€, 10 Jägermeister-Shots für 12€</t>
-  </si>
-  <si>
-    <t>6 Flaschen Desperados für 14,50€, 10 Tequilas für 10€</t>
-  </si>
-  <si>
-    <t>Besitos</t>
-  </si>
-  <si>
-    <t>0711 4898430</t>
-  </si>
-  <si>
-    <t>4b50a524f964a5201a2b27e3</t>
-  </si>
-  <si>
-    <t>alle Jumbo-Cocktails der Karte für 5,50€</t>
-  </si>
-  <si>
-    <t>Chicago Lounge</t>
-  </si>
-  <si>
-    <t>0711 51886904</t>
-  </si>
-  <si>
-    <t>4ca097cf03133704c3f07bd5</t>
-  </si>
-  <si>
-    <t>Jugendherberge Stuttgart International</t>
-  </si>
-  <si>
-    <t>0711 6647470</t>
-  </si>
-  <si>
-    <t>4ba3d1a2f964a520e96238e3</t>
-  </si>
-  <si>
-    <t>0711 87038617</t>
-  </si>
-  <si>
-    <t>53467e5c498e2a27d2dbdf2b</t>
-  </si>
-  <si>
-    <t>Burger mit Fritten und Cockail: Burgerpreis plus 7,50 €</t>
-  </si>
-  <si>
-    <t>Sophies Brauhaus</t>
-  </si>
-  <si>
-    <t>0711 610962</t>
-  </si>
-  <si>
-    <t>4b7592cdf964a5203b152ee3</t>
-  </si>
-  <si>
-    <t>Selbstgebrautes naturtrübes Bier - großes Bier zum kleinen Preis</t>
-  </si>
-  <si>
-    <t>Zu jedem Bier eine frische Brezel gratis dazu</t>
-  </si>
-  <si>
-    <t>Sophies Hausbräu im Pitcher zum Sonderpreis</t>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>03:00:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>04:00:00</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '22:00:00' , '03:00:00' , true , true , true , true , false , false , false</t>
+  </si>
+  <si>
+    <t>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '00:00:00' , '03:00:00' , true , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>'5346b3ad498e4ae9594fb6d5' , 'Alle Longdrinks und Cocktails für 4,90€; Alle Jumbo-Cocktails für 5,90€' , '22:30:00' , '00:00:00' , true , true , true , false , false , false , true</t>
+  </si>
+  <si>
+    <t>'5346b3ad498e4ae9594fb6d6' , 'Alle Longdrinks und Cocktails für 4,90€; Alle Jumbo-Cocktails für 5,90€' , '22:30:00' , '01:00:00' , false , false , false , true , true , true , false</t>
+  </si>
+  <si>
+    <t>'4d31d3c82e56236ac87f16b4' , 'Alle Cocktails für 4,90€' , '17:00:00' , '22:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>'52e96f1511d2c981acb41845' , 'Abendmahl im Menü: Burger mit Fritten und Cocktail für 7,50€: Burgerpreis plus 7,50€; Geöffnet bis Ende' , '17:00:00' , 'null' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>'4c9521abf244b1f7f3e0281d' , 'Caipirinha und Mojito für 5€' , '18:00:00' , '01:00:00' , true , true , true , true , true , true , false</t>
+  </si>
+  <si>
+    <t>'5001a910e4b0d8ae05eec43f' , 'Alle Cocktails 4,50€; Jumbos 6,50€; Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '16:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>'5001a910e4b0d8ae05eec43f' , 'Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '22:00:00' , '00:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>'5001a910e4b0d8ae05eec43f' , 'Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '22:00:00' , '03:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>'4c9513a258d4b60c93e12e29' , 'Alle Cocktails für 5€ und Dinkelacker Privat 0,5l für 3€, 24h geöffnet' , '00:00:00' , '00:00:00' , false , false , false , false , false , false , true</t>
+  </si>
+  <si>
+    <t>'4c9513a258d4b60c93e12e29' , 'Wodka Lemon, Bacardi Cola, Gin Tonic, 43 Milch, Jim Beam Cola, Batida Kirsch für 4,50€; 24h geöffnet' , '00:00:00' , '00:00:00' , true , true , true , false , false , false , false</t>
+  </si>
+  <si>
+    <t>'4c87654b47cc224b99a4b09f' , 'Alle Cocktails to go für 4,99€; Geöffnet bis Ende' , '11:00:00' , 'null' , true , true , true , true , true , false , false</t>
+  </si>
+  <si>
+    <t>'4c87654b47cc224b99a4b09f' , 'Alle Cocktails to go für 4,99€, Geöffnet bis Ende' , '12:00:00' , 'null' , false , false , false , false , false , true , true</t>
+  </si>
+  <si>
+    <t>'4c87654b47cc224b99a4b09f' , 'Alle Cocktails für 5€' , '17:00:00' , 'null' , false , false , false , true , false , false , false</t>
+  </si>
+  <si>
+    <t>'4b7ee121f964a520590630e3' , 'Alle Cocktails für 4,90€' , '17:00:00' , '22:00:00' , false , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail für 5€' , '17:00:00' , '18:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>'4e0e11c27d8bb178a8a53262' , 'Alle Cocktails zum halben Preis' , '18:00:00' , '20:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>'4e0e11c27d8bb178a8a53262' , 'Alle Cocktails zum halben Preis' , '17:00:00' , '20:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '02:00:00' , true , true , true , true , false , false , false</t>
+  </si>
+  <si>
+    <t>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '04:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '01:00:00' , false , false , false , false , false , false , true</t>
+  </si>
+  <si>
+    <t>'4bd89025f645c9b6ab47a8e0' , 'Cocktail Happy Hour Double Time' , '21:00:00' , '23:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>'4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '17:00:00' , '19:00:00' , true , true , true , true , true , false , false</t>
+  </si>
+  <si>
+    <t>'4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '16:00:00' , '19:00:00' , false , false , false , false , false , true , false</t>
+  </si>
+  <si>
+    <t>'4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '15:00:00' , '19:00:00' , false , false , false , false , false , false , true</t>
+  </si>
+  <si>
+    <t>'4c2a4e48355cef3b27facc56' , 'Alle Cocktails für 5€' , '17:00:00' , '21:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>'4c2a4e48355cef3b27facc56' , 'Margaritas für 5€' , '17:00:00' , '01:00:00' , true , false , false , false , false , false , false</t>
+  </si>
+  <si>
+    <t>'4c2a4e48355cef3b27facc56' , 'Alle Cocktails für 5€' , '17:00:00' , '01:00:00' , false , true , false , false , false , false , false</t>
+  </si>
+  <si>
+    <t>'4c2a4e48355cef3b27facc56' , 'Für Studenten alle Cocktails für 5€' , '17:00:00' , '01:00:00' , false , false , true , false , false , false , false</t>
+  </si>
+  <si>
+    <t>'4c2a4e48355cef3b27facc56' , 'Für Gruppen ab 3 Personen Cocktails für 5€' , '17:00:00' , '01:00:00' , false , false , false , true , false , false , false</t>
+  </si>
+  <si>
+    <t>'4c2a4e48355cef3b27facc56' , '5 Cocktails zum Preis von 4' , '23:00:00' , '01:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>'4c2a4e48355cef3b27facc56' , 'Caipirinhas für 5€' , '17:00:00' , '01:00:00' , false , false , false , false , false , false , true</t>
+  </si>
+  <si>
+    <t>'4fe4bdd5e4b0d43f1fceec16' , 'Alle Cocktails für 5€' , '17:30:00' , '20:00:00' , false , false , false , true , false , false , false</t>
+  </si>
+  <si>
+    <t>'4e6f30be52b1706317b5b8f6' , 'Alle Cocktails für 5,50€' , '18:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>'4e6f30be52b1706317b5b8f6' , 'Ladies Night: Alle Cocktails für 5,50€' , '18:00:00' , '00:00:00' , false , false , true , false , false , false , false</t>
+  </si>
+  <si>
+    <t>'4b7d9923f964a520f4c82fe3' , 'Alle Flaschenbiere 2€ (außer Echtes/Schwarzes)' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
+  </si>
+  <si>
+    <t>'4b7d9923f964a520f4c82fe3' , 'Alle Getränke: Ein Großes bestellen - Ein Kleines bezahlen' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
+  </si>
+  <si>
+    <t>'4b7d9923f964a520f4c82fe3' , 'Alle Cocktails und Longdrinks 1,50€ günstiger' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
   </si>
 </sst>
 </file>
@@ -649,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -657,11 +522,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -680,9 +542,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -720,9 +582,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,7 +619,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -966,12 +828,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M574"/>
+  <dimension ref="A1:P577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +841,7 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -989,9 +851,10 @@
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="185.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1072,8 +935,9 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1086,11 +950,11 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.125</v>
+      <c r="E3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1105,16 +969,23 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" t="str">
+        <f>"'" &amp; C3 &amp; "' , '" &amp; D3 &amp; "' , '" &amp; E3 &amp; "' , '" &amp; F3 &amp; "' , " &amp; G3 &amp; " , " &amp; H3 &amp; " , " &amp; I3 &amp; " , " &amp; J3 &amp; " , " &amp; K3 &amp; " , " &amp; L3 &amp; " , " &amp; M3</f>
+        <v>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '22:00:00' , '03:00:00' , true , true , true , true , false , false , false</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1127,23 +998,23 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.125</v>
+      <c r="E4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -1152,10 +1023,17 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O41" si="0">"'" &amp; C4 &amp; "' , '" &amp; D4 &amp; "' , '" &amp; E4 &amp; "' , '" &amp; F4 &amp; "' , " &amp; G4 &amp; " , " &amp; H4 &amp; " , " &amp; I4 &amp; " , " &amp; J4 &amp; " , " &amp; K4 &amp; " , " &amp; L4 &amp; " , " &amp; M4</f>
+        <v>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '00:00:00' , '03:00:00' , true , false , false , false , true , true , false</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1168,11 +1046,11 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5">
-        <v>0.9375</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
+      <c r="E5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1184,19 +1062,26 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>'5346b3ad498e4ae9594fb6d5' , 'Alle Longdrinks und Cocktails für 4,90€; Alle Jumbo-Cocktails für 5,90€' , '22:30:00' , '00:00:00' , true , true , true , false , false , false , true</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1209,20 +1094,20 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5">
-        <v>0.9375</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="E6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -1234,10 +1119,17 @@
         <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N6" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>'5346b3ad498e4ae9594fb6d6' , 'Alle Longdrinks und Cocktails für 4,90€; Alle Jumbo-Cocktails für 5,90€' , '22:30:00' , '01:00:00' , false , false , false , true , true , true , false</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1250,11 +1142,11 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.91666666666666663</v>
+      <c r="E7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -1269,16 +1161,23 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>'4d31d3c82e56236ac87f16b4' , 'Alle Cocktails für 4,90€' , '17:00:00' , '22:00:00' , true , true , true , true , false , false , true</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1291,8 +1190,8 @@
       <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5">
-        <v>0.70833333333333337</v>
+      <c r="E8" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>81</v>
@@ -1318,8 +1217,15 @@
       <c r="M8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>'52e96f1511d2c981acb41845' , 'Abendmahl im Menü: Burger mit Fritten und Cocktail für 7,50€: Burgerpreis plus 7,50€; Geöffnet bis Ende' , '17:00:00' , 'null' , true , true , true , true , true , true , true</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1332,11 +1238,11 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="E9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1357,10 +1263,17 @@
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c9521abf244b1f7f3e0281d' , 'Caipirinha und Mojito für 5€' , '18:00:00' , '01:00:00' , true , true , true , true , true , true , false</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1373,11 +1286,11 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.83333333333333337</v>
+      <c r="E10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -1400,8 +1313,15 @@
       <c r="M10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>'5001a910e4b0d8ae05eec43f' , 'Alle Cocktails 4,50€; Jumbos 6,50€; Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '16:00:00' , '20:00:00' , true , true , true , true , true , true , true</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1414,11 +1334,11 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
+      <c r="E11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -1433,16 +1353,23 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>'5001a910e4b0d8ae05eec43f' , 'Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '22:00:00' , '00:00:00' , true , true , true , true , false , false , true</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1455,23 +1382,23 @@
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.125</v>
+      <c r="E12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
@@ -1480,10 +1407,17 @@
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>'5001a910e4b0d8ae05eec43f' , 'Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '22:00:00' , '03:00:00' , false , false , false , false , true , true , false</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1496,35 +1430,42 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
+      <c r="E13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c9513a258d4b60c93e12e29' , 'Alle Cocktails für 5€ und Dinkelacker Privat 0,5l für 3€, 24h geöffnet' , '00:00:00' , '00:00:00' , false , false , false , false , false , false , true</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1537,11 +1478,11 @@
       <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
+      <c r="E14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -1553,19 +1494,26 @@
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c9513a258d4b60c93e12e29' , 'Wodka Lemon, Bacardi Cola, Gin Tonic, 43 Milch, Jim Beam Cola, Batida Kirsch für 4,50€; 24h geöffnet' , '00:00:00' , '00:00:00' , true , true , true , false , false , false , false</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1578,8 +1526,8 @@
       <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.45833333333333331</v>
+      <c r="E15" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>81</v>
@@ -1600,13 +1548,20 @@
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c87654b47cc224b99a4b09f' , 'Alle Cocktails to go für 4,99€; Geöffnet bis Ende' , '11:00:00' , 'null' , true , true , true , true , true , false , false</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1619,26 +1574,26 @@
       <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="5">
-        <v>0.5</v>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
@@ -1646,8 +1601,15 @@
       <c r="M16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c87654b47cc224b99a4b09f' , 'Alle Cocktails to go für 4,99€, Geöffnet bis Ende' , '12:00:00' , 'null' , false , false , false , false , false , true , true</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1660,35 +1622,42 @@
       <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="5">
-        <v>0.70833333333333337</v>
+      <c r="E17" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c87654b47cc224b99a4b09f' , 'Alle Cocktails für 5€' , '17:00:00' , 'null' , false , false , false , true , false , false , false</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1701,14 +1670,14 @@
       <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.91666666666666663</v>
+      <c r="E18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -1728,8 +1697,15 @@
       <c r="M18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b7ee121f964a520590630e3' , 'Alle Cocktails für 4,90€' , '17:00:00' , '22:00:00' , false , true , true , true , true , true , true</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1742,11 +1718,11 @@
       <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.75</v>
+      <c r="E19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
@@ -1769,8 +1745,15 @@
       <c r="M19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail für 5€' , '17:00:00' , '18:00:00' , true , true , true , true , true , true , true</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1783,11 +1766,11 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.83333333333333337</v>
+      <c r="E20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -1802,16 +1785,23 @@
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>'4e0e11c27d8bb178a8a53262' , 'Alle Cocktails zum halben Preis' , '18:00:00' , '20:00:00' , true , true , true , true , false , false , true</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1824,23 +1814,23 @@
       <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.83333333333333337</v>
+      <c r="E21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -1849,10 +1839,17 @@
         <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>'4e0e11c27d8bb178a8a53262' , 'Alle Cocktails zum halben Preis' , '17:00:00' , '20:00:00' , false , false , false , false , true , true , false</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1865,11 +1862,11 @@
       <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F22" s="5">
-        <v>8.3333333333333329E-2</v>
+      <c r="E22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -1884,16 +1881,23 @@
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '02:00:00' , true , true , true , true , false , false , false</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1906,23 +1910,23 @@
       <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.16666666666666666</v>
+      <c r="E23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
@@ -1931,10 +1935,17 @@
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '04:00:00' , false , false , false , false , true , true , false</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1947,35 +1958,42 @@
       <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F24" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="E24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '01:00:00' , false , false , false , false , false , false , true</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
@@ -1988,11 +2006,11 @@
       <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.95833333333333337</v>
+      <c r="E25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -2007,16 +2025,23 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v>'4bd89025f645c9b6ab47a8e0' , 'Cocktail Happy Hour Double Time' , '21:00:00' , '23:00:00' , true , true , true , true , false , false , true</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2029,11 +2054,11 @@
       <c r="D26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.79166666666666663</v>
+      <c r="E26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -2051,13 +2076,20 @@
         <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N26" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '17:00:00' , '19:00:00' , true , true , true , true , true , false , false</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2070,35 +2102,42 @@
       <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0.79166666666666663</v>
+      <c r="E27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L27" t="s">
         <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '16:00:00' , '19:00:00' , false , false , false , false , false , true , false</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2111,35 +2150,42 @@
       <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.79166666666666663</v>
+      <c r="E28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J28" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L28" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>138</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '15:00:00' , '19:00:00' , false , false , false , false , false , false , true</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2152,11 +2198,11 @@
       <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.875</v>
+      <c r="E29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
@@ -2179,8 +2225,15 @@
       <c r="M29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c2a4e48355cef3b27facc56' , 'Alle Cocktails für 5€' , '17:00:00' , '21:00:00' , true , true , true , true , true , true , true</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2193,35 +2246,42 @@
       <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="E30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N30" t="s">
+        <v>140</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c2a4e48355cef3b27facc56' , 'Margaritas für 5€' , '17:00:00' , '01:00:00' , true , false , false , false , false , false , false</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2234,35 +2294,42 @@
       <c r="D31" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F31" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="E31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
         <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J31" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N31" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c2a4e48355cef3b27facc56' , 'Alle Cocktails für 5€' , '17:00:00' , '01:00:00' , false , true , false , false , false , false , false</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2275,35 +2342,42 @@
       <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F32" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="E32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N32" t="s">
+        <v>142</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c2a4e48355cef3b27facc56' , 'Für Studenten alle Cocktails für 5€' , '17:00:00' , '01:00:00' , false , false , true , false , false , false , false</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2316,35 +2390,42 @@
       <c r="D33" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F33" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="E33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J33" t="s">
         <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N33" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c2a4e48355cef3b27facc56' , 'Für Gruppen ab 3 Personen Cocktails für 5€' , '17:00:00' , '01:00:00' , false , false , false , true , false , false , false</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2357,35 +2438,42 @@
       <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F34" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="E34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" t="s">
         <v>144</v>
       </c>
-      <c r="H34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" t="s">
-        <v>144</v>
-      </c>
-      <c r="K34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c2a4e48355cef3b27facc56' , '5 Cocktails zum Preis von 4' , '23:00:00' , '01:00:00' , false , false , false , false , true , true , false</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2398,35 +2486,42 @@
       <c r="D35" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F35" s="5">
-        <v>4.1666666666666664E-2</v>
+      <c r="E35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L35" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>145</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c2a4e48355cef3b27facc56' , 'Caipirinhas für 5€' , '17:00:00' , '01:00:00' , false , false , false , false , false , false , true</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2439,35 +2534,42 @@
       <c r="D36" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="5">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0.83333333333333337</v>
+      <c r="E36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s">
         <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L36" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N36" t="s">
+        <v>146</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="0"/>
+        <v>'4fe4bdd5e4b0d43f1fceec16' , 'Alle Cocktails für 5€' , '17:30:00' , '20:00:00' , false , false , false , true , false , false , false</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -2480,11 +2582,11 @@
       <c r="D37" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0.83333333333333337</v>
+      <c r="E37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
@@ -2507,8 +2609,15 @@
       <c r="M37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>147</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="0"/>
+        <v>'4e6f30be52b1706317b5b8f6' , 'Alle Cocktails für 5,50€' , '18:00:00' , '20:00:00' , true , true , true , true , true , true , true</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -2521,35 +2630,42 @@
       <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
+      <c r="E38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N38" t="s">
+        <v>148</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="0"/>
+        <v>'4e6f30be52b1706317b5b8f6' , 'Ladies Night: Alle Cocktails für 5,50€' , '18:00:00' , '00:00:00' , false , false , true , false , false , false , false</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2562,35 +2678,42 @@
       <c r="D39" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F39" s="5">
-        <v>8.3333333333333329E-2</v>
+      <c r="E39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J39" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s">
         <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N39" t="s">
+        <v>149</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b7d9923f964a520f4c82fe3' , 'Alle Flaschenbiere 2€ (außer Echtes/Schwarzes)' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -2603,35 +2726,42 @@
       <c r="D40" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F40" s="5">
-        <v>8.3333333333333329E-2</v>
+      <c r="E40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="G40" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s">
         <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N40" t="s">
+        <v>150</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b7d9923f964a520f4c82fe3' , 'Alle Getränke: Ein Großes bestellen - Ein Kleines bezahlen' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2644,2097 +2774,204 @@
       <c r="D41" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F41" s="5">
-        <v>8.3333333333333329E-2</v>
+      <c r="E41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="L41" t="s">
         <v>20</v>
       </c>
       <c r="M41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0.9375</v>
-      </c>
-      <c r="G42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" t="s">
-        <v>144</v>
-      </c>
-      <c r="J42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" t="s">
-        <v>144</v>
-      </c>
-      <c r="L42" t="s">
-        <v>144</v>
-      </c>
-      <c r="M42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" t="s">
-        <v>144</v>
-      </c>
-      <c r="H43" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" t="s">
-        <v>144</v>
-      </c>
-      <c r="K43" t="s">
-        <v>144</v>
-      </c>
-      <c r="L43" t="s">
-        <v>144</v>
-      </c>
-      <c r="M43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F45" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" t="s">
-        <v>144</v>
-      </c>
-      <c r="L45" t="s">
-        <v>144</v>
-      </c>
-      <c r="M45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F46" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J46" t="s">
-        <v>144</v>
-      </c>
-      <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F47" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" t="s">
-        <v>144</v>
-      </c>
-      <c r="K47" t="s">
-        <v>144</v>
-      </c>
-      <c r="L47" t="s">
-        <v>144</v>
-      </c>
-      <c r="M47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s">
-        <v>144</v>
-      </c>
-      <c r="K51" t="s">
-        <v>144</v>
-      </c>
-      <c r="L51" t="s">
-        <v>144</v>
-      </c>
-      <c r="M51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F52" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" t="s">
-        <v>144</v>
-      </c>
-      <c r="L52" t="s">
-        <v>144</v>
-      </c>
-      <c r="M52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="F53" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" t="s">
-        <v>144</v>
-      </c>
-      <c r="I53" t="s">
-        <v>144</v>
-      </c>
-      <c r="J53" t="s">
-        <v>144</v>
-      </c>
-      <c r="K53" t="s">
-        <v>144</v>
-      </c>
-      <c r="L53" t="s">
-        <v>144</v>
-      </c>
-      <c r="M53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="G54" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" t="s">
-        <v>144</v>
-      </c>
-      <c r="I54" t="s">
-        <v>144</v>
-      </c>
-      <c r="J54" t="s">
-        <v>144</v>
-      </c>
-      <c r="K54" t="s">
-        <v>119</v>
-      </c>
-      <c r="L54" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F55" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G55" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" t="s">
-        <v>144</v>
-      </c>
-      <c r="I55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J55" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" t="s">
-        <v>144</v>
-      </c>
-      <c r="L55" t="s">
-        <v>144</v>
-      </c>
-      <c r="M55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F56" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>144</v>
-      </c>
-      <c r="H56" t="s">
-        <v>144</v>
-      </c>
-      <c r="I56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" t="s">
-        <v>144</v>
-      </c>
-      <c r="K56" t="s">
-        <v>144</v>
-      </c>
-      <c r="L56" t="s">
-        <v>144</v>
-      </c>
-      <c r="M56" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="F58" s="7">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" t="s">
-        <v>144</v>
-      </c>
-      <c r="M59" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F60" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="G60" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" t="s">
-        <v>144</v>
-      </c>
-      <c r="I60" t="s">
-        <v>144</v>
-      </c>
-      <c r="J60" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" t="s">
-        <v>144</v>
-      </c>
-      <c r="L60" t="s">
-        <v>144</v>
-      </c>
-      <c r="M60" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="F61" s="5">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" t="s">
-        <v>144</v>
-      </c>
-      <c r="I61" t="s">
-        <v>144</v>
-      </c>
-      <c r="J61" t="s">
-        <v>144</v>
-      </c>
-      <c r="K61" t="s">
-        <v>144</v>
-      </c>
-      <c r="L61" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F62" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" t="s">
-        <v>144</v>
-      </c>
-      <c r="I62" t="s">
-        <v>144</v>
-      </c>
-      <c r="J62" t="s">
-        <v>144</v>
-      </c>
-      <c r="K62" t="s">
-        <v>144</v>
-      </c>
-      <c r="L62" t="s">
-        <v>144</v>
-      </c>
-      <c r="M62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F63" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G63" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" t="s">
-        <v>144</v>
-      </c>
-      <c r="J63" t="s">
-        <v>144</v>
-      </c>
-      <c r="K63" t="s">
-        <v>144</v>
-      </c>
-      <c r="L63" t="s">
-        <v>144</v>
-      </c>
-      <c r="M63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F64" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G64" t="s">
-        <v>144</v>
-      </c>
-      <c r="H64" t="s">
-        <v>144</v>
-      </c>
-      <c r="I64" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" t="s">
-        <v>144</v>
-      </c>
-      <c r="K64" t="s">
-        <v>144</v>
-      </c>
-      <c r="L64" t="s">
-        <v>144</v>
-      </c>
-      <c r="M64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F65" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G65" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" t="s">
-        <v>144</v>
-      </c>
-      <c r="I65" t="s">
-        <v>144</v>
-      </c>
-      <c r="J65" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" t="s">
-        <v>144</v>
-      </c>
-      <c r="L65" t="s">
-        <v>144</v>
-      </c>
-      <c r="M65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F66" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="G66" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" t="s">
-        <v>144</v>
-      </c>
-      <c r="I66" t="s">
-        <v>144</v>
-      </c>
-      <c r="J66" t="s">
-        <v>144</v>
-      </c>
-      <c r="K66" t="s">
-        <v>144</v>
-      </c>
-      <c r="L66" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E67" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F67" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="N41" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="F68" s="5">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" t="s">
-        <v>144</v>
-      </c>
-      <c r="I68" t="s">
-        <v>144</v>
-      </c>
-      <c r="J68" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" t="s">
-        <v>144</v>
-      </c>
-      <c r="L68" t="s">
-        <v>144</v>
-      </c>
-      <c r="M68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" s="5">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69" t="s">
-        <v>144</v>
-      </c>
-      <c r="I69" t="s">
-        <v>144</v>
-      </c>
-      <c r="J69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" t="s">
-        <v>144</v>
-      </c>
-      <c r="L69" t="s">
-        <v>144</v>
-      </c>
-      <c r="M69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F70" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" t="s">
-        <v>20</v>
-      </c>
-      <c r="M70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>153</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D71" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0.9375</v>
-      </c>
-      <c r="F71" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G71" t="s">
-        <v>144</v>
-      </c>
-      <c r="H71" t="s">
-        <v>144</v>
-      </c>
-      <c r="I71" t="s">
-        <v>144</v>
-      </c>
-      <c r="J71" t="s">
-        <v>144</v>
-      </c>
-      <c r="K71" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0.9375</v>
-      </c>
-      <c r="F72" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" t="s">
-        <v>144</v>
-      </c>
-      <c r="L72" t="s">
-        <v>144</v>
-      </c>
-      <c r="M72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" t="s">
-        <v>161</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F73" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" t="s">
-        <v>144</v>
-      </c>
-      <c r="I73" t="s">
-        <v>144</v>
-      </c>
-      <c r="J73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K73" t="s">
-        <v>144</v>
-      </c>
-      <c r="L73" t="s">
-        <v>144</v>
-      </c>
-      <c r="M73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" t="s">
-        <v>162</v>
-      </c>
-      <c r="E74" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F74" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G74" t="s">
-        <v>144</v>
-      </c>
-      <c r="H74" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" t="s">
-        <v>144</v>
-      </c>
-      <c r="J74" t="s">
-        <v>144</v>
-      </c>
-      <c r="K74" t="s">
-        <v>144</v>
-      </c>
-      <c r="L74" t="s">
-        <v>144</v>
-      </c>
-      <c r="M74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>158</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75" t="s">
-        <v>163</v>
-      </c>
-      <c r="E75" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F75" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G75" t="s">
-        <v>144</v>
-      </c>
-      <c r="H75" t="s">
-        <v>144</v>
-      </c>
-      <c r="I75" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" t="s">
-        <v>144</v>
-      </c>
-      <c r="K75" t="s">
-        <v>144</v>
-      </c>
-      <c r="L75" t="s">
-        <v>144</v>
-      </c>
-      <c r="M75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D76" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F76" s="5">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>144</v>
-      </c>
-      <c r="H76" t="s">
-        <v>144</v>
-      </c>
-      <c r="I76" t="s">
-        <v>144</v>
-      </c>
-      <c r="J76" t="s">
-        <v>144</v>
-      </c>
-      <c r="K76" t="s">
-        <v>144</v>
-      </c>
-      <c r="L76" t="s">
-        <v>20</v>
-      </c>
-      <c r="M76" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F77" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" t="s">
-        <v>144</v>
-      </c>
-      <c r="L77" t="s">
-        <v>144</v>
-      </c>
-      <c r="M77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G78" t="s">
-        <v>144</v>
-      </c>
-      <c r="H78" t="s">
-        <v>144</v>
-      </c>
-      <c r="I78" t="s">
-        <v>144</v>
-      </c>
-      <c r="J78" t="s">
-        <v>144</v>
-      </c>
-      <c r="K78" t="s">
-        <v>20</v>
-      </c>
-      <c r="L78" t="s">
-        <v>20</v>
-      </c>
-      <c r="M78" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" t="s">
-        <v>172</v>
-      </c>
-      <c r="E79" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F79" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" t="s">
-        <v>144</v>
-      </c>
-      <c r="I79" t="s">
-        <v>144</v>
-      </c>
-      <c r="J79" t="s">
-        <v>144</v>
-      </c>
-      <c r="K79" t="s">
-        <v>144</v>
-      </c>
-      <c r="L79" t="s">
-        <v>144</v>
-      </c>
-      <c r="M79" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" t="s">
-        <v>171</v>
-      </c>
-      <c r="D80" t="s">
-        <v>173</v>
-      </c>
-      <c r="E80" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F80" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G80" t="s">
-        <v>144</v>
-      </c>
-      <c r="H80" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" t="s">
-        <v>144</v>
-      </c>
-      <c r="J80" t="s">
-        <v>144</v>
-      </c>
-      <c r="K80" t="s">
-        <v>144</v>
-      </c>
-      <c r="L80" t="s">
-        <v>144</v>
-      </c>
-      <c r="M80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81" t="s">
-        <v>174</v>
-      </c>
-      <c r="E81" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F81" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G81" t="s">
-        <v>144</v>
-      </c>
-      <c r="H81" t="s">
-        <v>144</v>
-      </c>
-      <c r="I81" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" t="s">
-        <v>144</v>
-      </c>
-      <c r="K81" t="s">
-        <v>144</v>
-      </c>
-      <c r="L81" t="s">
-        <v>144</v>
-      </c>
-      <c r="M81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" t="s">
-        <v>175</v>
-      </c>
-      <c r="E82" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F82" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G82" t="s">
-        <v>144</v>
-      </c>
-      <c r="H82" t="s">
-        <v>144</v>
-      </c>
-      <c r="I82" t="s">
-        <v>144</v>
-      </c>
-      <c r="J82" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" t="s">
-        <v>144</v>
-      </c>
-      <c r="L82" t="s">
-        <v>144</v>
-      </c>
-      <c r="M82" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F83" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G83" t="s">
-        <v>144</v>
-      </c>
-      <c r="H83" t="s">
-        <v>144</v>
-      </c>
-      <c r="I83" t="s">
-        <v>144</v>
-      </c>
-      <c r="J83" t="s">
-        <v>144</v>
-      </c>
-      <c r="K83" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" t="s">
-        <v>144</v>
-      </c>
-      <c r="M83" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" t="s">
-        <v>177</v>
-      </c>
-      <c r="E84" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F84" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G84" t="s">
-        <v>144</v>
-      </c>
-      <c r="H84" t="s">
-        <v>144</v>
-      </c>
-      <c r="I84" t="s">
-        <v>144</v>
-      </c>
-      <c r="J84" t="s">
-        <v>144</v>
-      </c>
-      <c r="K84" t="s">
-        <v>144</v>
-      </c>
-      <c r="L84" t="s">
-        <v>20</v>
-      </c>
-      <c r="M84" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>178</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F85" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>182</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F86" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" t="s">
-        <v>144</v>
-      </c>
-      <c r="L86" t="s">
-        <v>144</v>
-      </c>
-      <c r="M86" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>185</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E87" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F87" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" t="s">
-        <v>20</v>
-      </c>
-      <c r="M87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C88" t="s">
-        <v>189</v>
-      </c>
-      <c r="D88" t="s">
-        <v>190</v>
-      </c>
-      <c r="E88" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>191</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D89" t="s">
-        <v>194</v>
-      </c>
-      <c r="E89" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F89" s="5">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" t="s">
-        <v>144</v>
-      </c>
-      <c r="M89" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C90" t="s">
-        <v>193</v>
-      </c>
-      <c r="D90" t="s">
-        <v>195</v>
-      </c>
-      <c r="E90" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F90" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" t="s">
-        <v>144</v>
-      </c>
-      <c r="I90" t="s">
-        <v>144</v>
-      </c>
-      <c r="J90" t="s">
-        <v>144</v>
-      </c>
-      <c r="K90" t="s">
-        <v>144</v>
-      </c>
-      <c r="L90" t="s">
-        <v>144</v>
-      </c>
-      <c r="M90" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>191</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" t="s">
-        <v>193</v>
-      </c>
-      <c r="D91" t="s">
-        <v>196</v>
-      </c>
-      <c r="E91" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F91" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G91" t="s">
-        <v>144</v>
-      </c>
-      <c r="H91" t="s">
-        <v>144</v>
-      </c>
-      <c r="I91" t="s">
-        <v>144</v>
-      </c>
-      <c r="J91" t="s">
-        <v>144</v>
-      </c>
-      <c r="K91" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" t="s">
-        <v>144</v>
-      </c>
-      <c r="M91" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b7d9923f964a520f4c82fe3' , 'Alle Cocktails und Longdrinks 1,50€ günstiger' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
@@ -6170,6 +4407,15 @@
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B574" s="2"/>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" s="2"/>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" s="2"/>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -355,121 +355,121 @@
     <t>19:00:00</t>
   </si>
   <si>
-    <t>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '22:00:00' , '03:00:00' , true , true , true , true , false , false , false</t>
-  </si>
-  <si>
-    <t>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '00:00:00' , '03:00:00' , true , false , false , false , true , true , false</t>
-  </si>
-  <si>
-    <t>'5346b3ad498e4ae9594fb6d5' , 'Alle Longdrinks und Cocktails für 4,90€; Alle Jumbo-Cocktails für 5,90€' , '22:30:00' , '00:00:00' , true , true , true , false , false , false , true</t>
-  </si>
-  <si>
-    <t>'5346b3ad498e4ae9594fb6d6' , 'Alle Longdrinks und Cocktails für 4,90€; Alle Jumbo-Cocktails für 5,90€' , '22:30:00' , '01:00:00' , false , false , false , true , true , true , false</t>
-  </si>
-  <si>
-    <t>'4d31d3c82e56236ac87f16b4' , 'Alle Cocktails für 4,90€' , '17:00:00' , '22:00:00' , true , true , true , true , false , false , true</t>
-  </si>
-  <si>
-    <t>'52e96f1511d2c981acb41845' , 'Abendmahl im Menü: Burger mit Fritten und Cocktail für 7,50€: Burgerpreis plus 7,50€; Geöffnet bis Ende' , '17:00:00' , 'null' , true , true , true , true , true , true , true</t>
-  </si>
-  <si>
-    <t>'4c9521abf244b1f7f3e0281d' , 'Caipirinha und Mojito für 5€' , '18:00:00' , '01:00:00' , true , true , true , true , true , true , false</t>
-  </si>
-  <si>
-    <t>'5001a910e4b0d8ae05eec43f' , 'Alle Cocktails 4,50€; Jumbos 6,50€; Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '16:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
-  </si>
-  <si>
-    <t>'5001a910e4b0d8ae05eec43f' , 'Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '22:00:00' , '00:00:00' , true , true , true , true , false , false , true</t>
-  </si>
-  <si>
-    <t>'5001a910e4b0d8ae05eec43f' , 'Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '22:00:00' , '03:00:00' , false , false , false , false , true , true , false</t>
-  </si>
-  <si>
-    <t>'4c9513a258d4b60c93e12e29' , 'Alle Cocktails für 5€ und Dinkelacker Privat 0,5l für 3€, 24h geöffnet' , '00:00:00' , '00:00:00' , false , false , false , false , false , false , true</t>
-  </si>
-  <si>
-    <t>'4c9513a258d4b60c93e12e29' , 'Wodka Lemon, Bacardi Cola, Gin Tonic, 43 Milch, Jim Beam Cola, Batida Kirsch für 4,50€; 24h geöffnet' , '00:00:00' , '00:00:00' , true , true , true , false , false , false , false</t>
-  </si>
-  <si>
-    <t>'4c87654b47cc224b99a4b09f' , 'Alle Cocktails to go für 4,99€; Geöffnet bis Ende' , '11:00:00' , 'null' , true , true , true , true , true , false , false</t>
-  </si>
-  <si>
-    <t>'4c87654b47cc224b99a4b09f' , 'Alle Cocktails to go für 4,99€, Geöffnet bis Ende' , '12:00:00' , 'null' , false , false , false , false , false , true , true</t>
-  </si>
-  <si>
-    <t>'4c87654b47cc224b99a4b09f' , 'Alle Cocktails für 5€' , '17:00:00' , 'null' , false , false , false , true , false , false , false</t>
-  </si>
-  <si>
-    <t>'4b7ee121f964a520590630e3' , 'Alle Cocktails für 4,90€' , '17:00:00' , '22:00:00' , false , true , true , true , true , true , true</t>
-  </si>
-  <si>
-    <t>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail für 5€' , '17:00:00' , '18:00:00' , true , true , true , true , true , true , true</t>
-  </si>
-  <si>
-    <t>'4e0e11c27d8bb178a8a53262' , 'Alle Cocktails zum halben Preis' , '18:00:00' , '20:00:00' , true , true , true , true , false , false , true</t>
-  </si>
-  <si>
-    <t>'4e0e11c27d8bb178a8a53262' , 'Alle Cocktails zum halben Preis' , '17:00:00' , '20:00:00' , false , false , false , false , true , true , false</t>
-  </si>
-  <si>
-    <t>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '02:00:00' , true , true , true , true , false , false , false</t>
-  </si>
-  <si>
-    <t>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '04:00:00' , false , false , false , false , true , true , false</t>
-  </si>
-  <si>
-    <t>'4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '01:00:00' , false , false , false , false , false , false , true</t>
-  </si>
-  <si>
-    <t>'4bd89025f645c9b6ab47a8e0' , 'Cocktail Happy Hour Double Time' , '21:00:00' , '23:00:00' , true , true , true , true , false , false , true</t>
-  </si>
-  <si>
-    <t>'4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '17:00:00' , '19:00:00' , true , true , true , true , true , false , false</t>
-  </si>
-  <si>
-    <t>'4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '16:00:00' , '19:00:00' , false , false , false , false , false , true , false</t>
-  </si>
-  <si>
-    <t>'4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '15:00:00' , '19:00:00' , false , false , false , false , false , false , true</t>
-  </si>
-  <si>
-    <t>'4c2a4e48355cef3b27facc56' , 'Alle Cocktails für 5€' , '17:00:00' , '21:00:00' , true , true , true , true , true , true , true</t>
-  </si>
-  <si>
-    <t>'4c2a4e48355cef3b27facc56' , 'Margaritas für 5€' , '17:00:00' , '01:00:00' , true , false , false , false , false , false , false</t>
-  </si>
-  <si>
-    <t>'4c2a4e48355cef3b27facc56' , 'Alle Cocktails für 5€' , '17:00:00' , '01:00:00' , false , true , false , false , false , false , false</t>
-  </si>
-  <si>
-    <t>'4c2a4e48355cef3b27facc56' , 'Für Studenten alle Cocktails für 5€' , '17:00:00' , '01:00:00' , false , false , true , false , false , false , false</t>
-  </si>
-  <si>
-    <t>'4c2a4e48355cef3b27facc56' , 'Für Gruppen ab 3 Personen Cocktails für 5€' , '17:00:00' , '01:00:00' , false , false , false , true , false , false , false</t>
-  </si>
-  <si>
-    <t>'4c2a4e48355cef3b27facc56' , '5 Cocktails zum Preis von 4' , '23:00:00' , '01:00:00' , false , false , false , false , true , true , false</t>
-  </si>
-  <si>
-    <t>'4c2a4e48355cef3b27facc56' , 'Caipirinhas für 5€' , '17:00:00' , '01:00:00' , false , false , false , false , false , false , true</t>
-  </si>
-  <si>
-    <t>'4fe4bdd5e4b0d43f1fceec16' , 'Alle Cocktails für 5€' , '17:30:00' , '20:00:00' , false , false , false , true , false , false , false</t>
-  </si>
-  <si>
-    <t>'4e6f30be52b1706317b5b8f6' , 'Alle Cocktails für 5,50€' , '18:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
-  </si>
-  <si>
-    <t>'4e6f30be52b1706317b5b8f6' , 'Ladies Night: Alle Cocktails für 5,50€' , '18:00:00' , '00:00:00' , false , false , true , false , false , false , false</t>
-  </si>
-  <si>
-    <t>'4b7d9923f964a520f4c82fe3' , 'Alle Flaschenbiere 2€ (außer Echtes/Schwarzes)' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
-  </si>
-  <si>
-    <t>'4b7d9923f964a520f4c82fe3' , 'Alle Getränke: Ein Großes bestellen - Ein Kleines bezahlen' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
-  </si>
-  <si>
-    <t>'4b7d9923f964a520f4c82fe3' , 'Alle Cocktails und Longdrinks 1,50€ günstiger' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
+    <t>4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '22:00:00' , '03:00:00' , true , true , true , true , false , false , false</t>
+  </si>
+  <si>
+    <t>4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '00:00:00' , '03:00:00' , true , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>5346b3ad498e4ae9594fb6d5' , 'Alle Longdrinks und Cocktails für 4,90€; Alle Jumbo-Cocktails für 5,90€' , '22:30:00' , '00:00:00' , true , true , true , false , false , false , true</t>
+  </si>
+  <si>
+    <t>5346b3ad498e4ae9594fb6d6' , 'Alle Longdrinks und Cocktails für 4,90€; Alle Jumbo-Cocktails für 5,90€' , '22:30:00' , '01:00:00' , false , false , false , true , true , true , false</t>
+  </si>
+  <si>
+    <t>4d31d3c82e56236ac87f16b4' , 'Alle Cocktails für 4,90€' , '17:00:00' , '22:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>52e96f1511d2c981acb41845' , 'Abendmahl im Menü: Burger mit Fritten und Cocktail für 7,50€: Burgerpreis plus 7,50€; Geöffnet bis Ende' , '17:00:00' , 'null' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4c9521abf244b1f7f3e0281d' , 'Caipirinha und Mojito für 5€' , '18:00:00' , '01:00:00' , true , true , true , true , true , true , false</t>
+  </si>
+  <si>
+    <t>5001a910e4b0d8ae05eec43f' , 'Alle Cocktails 4,50€; Jumbos 6,50€; Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '16:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>5001a910e4b0d8ae05eec43f' , 'Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '22:00:00' , '00:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>5001a910e4b0d8ae05eec43f' , 'Margaritas für 3,95€: Margarita Pitcher für 15,95€' , '22:00:00' , '03:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>4c9513a258d4b60c93e12e29' , 'Alle Cocktails für 5€ und Dinkelacker Privat 0,5l für 3€, 24h geöffnet' , '00:00:00' , '00:00:00' , false , false , false , false , false , false , true</t>
+  </si>
+  <si>
+    <t>4c9513a258d4b60c93e12e29' , 'Wodka Lemon, Bacardi Cola, Gin Tonic, 43 Milch, Jim Beam Cola, Batida Kirsch für 4,50€; 24h geöffnet' , '00:00:00' , '00:00:00' , true , true , true , false , false , false , false</t>
+  </si>
+  <si>
+    <t>4c87654b47cc224b99a4b09f' , 'Alle Cocktails to go für 4,99€; Geöffnet bis Ende' , '11:00:00' , 'null' , true , true , true , true , true , false , false</t>
+  </si>
+  <si>
+    <t>4c87654b47cc224b99a4b09f' , 'Alle Cocktails to go für 4,99€, Geöffnet bis Ende' , '12:00:00' , 'null' , false , false , false , false , false , true , true</t>
+  </si>
+  <si>
+    <t>4c87654b47cc224b99a4b09f' , 'Alle Cocktails für 5€' , '17:00:00' , 'null' , false , false , false , true , false , false , false</t>
+  </si>
+  <si>
+    <t>4b7ee121f964a520590630e3' , 'Alle Cocktails für 4,90€' , '17:00:00' , '22:00:00' , false , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail für 5€' , '17:00:00' , '18:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4e0e11c27d8bb178a8a53262' , 'Alle Cocktails zum halben Preis' , '18:00:00' , '20:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>4e0e11c27d8bb178a8a53262' , 'Alle Cocktails zum halben Preis' , '17:00:00' , '20:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '02:00:00' , true , true , true , true , false , false , false</t>
+  </si>
+  <si>
+    <t>4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '04:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>4e0e11c27d8bb178a8a53262' , 'Jumbo Cocktail zum Preis eines normalen' , '23:00:00' , '01:00:00' , false , false , false , false , false , false , true</t>
+  </si>
+  <si>
+    <t>4bd89025f645c9b6ab47a8e0' , 'Cocktail Happy Hour Double Time' , '21:00:00' , '23:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '17:00:00' , '19:00:00' , true , true , true , true , true , false , false</t>
+  </si>
+  <si>
+    <t>4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '16:00:00' , '19:00:00' , false , false , false , false , false , true , false</t>
+  </si>
+  <si>
+    <t>4b771002f964a52062792ee3' , 'Alle Cocktails für 4,50€' , '15:00:00' , '19:00:00' , false , false , false , false , false , false , true</t>
+  </si>
+  <si>
+    <t>4c2a4e48355cef3b27facc56' , 'Alle Cocktails für 5€' , '17:00:00' , '21:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4c2a4e48355cef3b27facc56' , 'Margaritas für 5€' , '17:00:00' , '01:00:00' , true , false , false , false , false , false , false</t>
+  </si>
+  <si>
+    <t>4c2a4e48355cef3b27facc56' , 'Alle Cocktails für 5€' , '17:00:00' , '01:00:00' , false , true , false , false , false , false , false</t>
+  </si>
+  <si>
+    <t>4c2a4e48355cef3b27facc56' , 'Für Studenten alle Cocktails für 5€' , '17:00:00' , '01:00:00' , false , false , true , false , false , false , false</t>
+  </si>
+  <si>
+    <t>4c2a4e48355cef3b27facc56' , 'Für Gruppen ab 3 Personen Cocktails für 5€' , '17:00:00' , '01:00:00' , false , false , false , true , false , false , false</t>
+  </si>
+  <si>
+    <t>4c2a4e48355cef3b27facc56' , '5 Cocktails zum Preis von 4' , '23:00:00' , '01:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>4c2a4e48355cef3b27facc56' , 'Caipirinhas für 5€' , '17:00:00' , '01:00:00' , false , false , false , false , false , false , true</t>
+  </si>
+  <si>
+    <t>4fe4bdd5e4b0d43f1fceec16' , 'Alle Cocktails für 5€' , '17:30:00' , '20:00:00' , false , false , false , true , false , false , false</t>
+  </si>
+  <si>
+    <t>4e6f30be52b1706317b5b8f6' , 'Alle Cocktails für 5,50€' , '18:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4e6f30be52b1706317b5b8f6' , 'Ladies Night: Alle Cocktails für 5,50€' , '18:00:00' , '00:00:00' , false , false , true , false , false , false , false</t>
+  </si>
+  <si>
+    <t>4b7d9923f964a520f4c82fe3' , 'Alle Flaschenbiere 2€ (außer Echtes/Schwarzes)' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
+  </si>
+  <si>
+    <t>4b7d9923f964a520f4c82fe3' , 'Alle Getränke: Ein Großes bestellen - Ein Kleines bezahlen' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
+  </si>
+  <si>
+    <t>4b7d9923f964a520f4c82fe3' , 'Alle Cocktails und Longdrinks 1,50€ günstiger' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
   </si>
 </sst>
 </file>
@@ -485,12 +485,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -514,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -524,6 +530,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -830,10 +837,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +984,7 @@
       <c r="M3" t="s">
         <v>94</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="5" t="s">
         <v>113</v>
       </c>
       <c r="O3" t="str">
@@ -1025,7 +1032,7 @@
       <c r="M4" t="s">
         <v>94</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="5" t="s">
         <v>114</v>
       </c>
       <c r="O4" t="str">
@@ -1073,7 +1080,7 @@
       <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="5" t="s">
         <v>115</v>
       </c>
       <c r="O5" t="str">
@@ -1121,7 +1128,7 @@
       <c r="M6" t="s">
         <v>94</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="5" t="s">
         <v>116</v>
       </c>
       <c r="O6" t="str">
@@ -1169,7 +1176,7 @@
       <c r="M7" t="s">
         <v>20</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>117</v>
       </c>
       <c r="O7" t="str">
@@ -1217,7 +1224,7 @@
       <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="5" t="s">
         <v>118</v>
       </c>
       <c r="O8" t="str">
@@ -1265,7 +1272,7 @@
       <c r="M9" t="s">
         <v>94</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="5" t="s">
         <v>119</v>
       </c>
       <c r="O9" t="str">
@@ -1313,7 +1320,7 @@
       <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="5" t="s">
         <v>120</v>
       </c>
       <c r="O10" t="str">
@@ -1361,7 +1368,7 @@
       <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="5" t="s">
         <v>121</v>
       </c>
       <c r="O11" t="str">
@@ -1409,7 +1416,7 @@
       <c r="M12" t="s">
         <v>94</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="5" t="s">
         <v>122</v>
       </c>
       <c r="O12" t="str">
@@ -1457,7 +1464,7 @@
       <c r="M13" t="s">
         <v>20</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="5" t="s">
         <v>123</v>
       </c>
       <c r="O13" t="str">
@@ -1505,7 +1512,7 @@
       <c r="M14" t="s">
         <v>94</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="5" t="s">
         <v>124</v>
       </c>
       <c r="O14" t="str">
@@ -1553,7 +1560,7 @@
       <c r="M15" t="s">
         <v>94</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="5" t="s">
         <v>125</v>
       </c>
       <c r="O15" t="str">
@@ -1601,7 +1608,7 @@
       <c r="M16" t="s">
         <v>20</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="5" t="s">
         <v>126</v>
       </c>
       <c r="O16" t="str">
@@ -1649,7 +1656,7 @@
       <c r="M17" t="s">
         <v>94</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="5" t="s">
         <v>127</v>
       </c>
       <c r="O17" t="str">
@@ -1697,7 +1704,7 @@
       <c r="M18" t="s">
         <v>20</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="5" t="s">
         <v>128</v>
       </c>
       <c r="O18" t="str">
@@ -1745,7 +1752,7 @@
       <c r="M19" t="s">
         <v>20</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="5" t="s">
         <v>129</v>
       </c>
       <c r="O19" t="str">
@@ -1793,7 +1800,7 @@
       <c r="M20" t="s">
         <v>20</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="5" t="s">
         <v>130</v>
       </c>
       <c r="O20" t="str">
@@ -1841,7 +1848,7 @@
       <c r="M21" t="s">
         <v>94</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="5" t="s">
         <v>131</v>
       </c>
       <c r="O21" t="str">
@@ -1889,7 +1896,7 @@
       <c r="M22" t="s">
         <v>94</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="5" t="s">
         <v>132</v>
       </c>
       <c r="O22" t="str">
@@ -1937,7 +1944,7 @@
       <c r="M23" t="s">
         <v>94</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="5" t="s">
         <v>133</v>
       </c>
       <c r="O23" t="str">
@@ -1985,7 +1992,7 @@
       <c r="M24" t="s">
         <v>20</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="5" t="s">
         <v>134</v>
       </c>
       <c r="O24" t="str">
@@ -2033,7 +2040,7 @@
       <c r="M25" t="s">
         <v>20</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="5" t="s">
         <v>135</v>
       </c>
       <c r="O25" t="str">
@@ -2081,7 +2088,7 @@
       <c r="M26" t="s">
         <v>94</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="5" t="s">
         <v>136</v>
       </c>
       <c r="O26" t="str">
@@ -2129,7 +2136,7 @@
       <c r="M27" t="s">
         <v>94</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="5" t="s">
         <v>137</v>
       </c>
       <c r="O27" t="str">
@@ -2177,7 +2184,7 @@
       <c r="M28" t="s">
         <v>20</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="5" t="s">
         <v>138</v>
       </c>
       <c r="O28" t="str">
@@ -2225,7 +2232,7 @@
       <c r="M29" t="s">
         <v>20</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="5" t="s">
         <v>139</v>
       </c>
       <c r="O29" t="str">
@@ -2273,7 +2280,7 @@
       <c r="M30" t="s">
         <v>94</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="5" t="s">
         <v>140</v>
       </c>
       <c r="O30" t="str">
@@ -2321,7 +2328,7 @@
       <c r="M31" t="s">
         <v>94</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="5" t="s">
         <v>141</v>
       </c>
       <c r="O31" t="str">
@@ -2369,7 +2376,7 @@
       <c r="M32" t="s">
         <v>94</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="5" t="s">
         <v>142</v>
       </c>
       <c r="O32" t="str">
@@ -2417,7 +2424,7 @@
       <c r="M33" t="s">
         <v>94</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="5" t="s">
         <v>143</v>
       </c>
       <c r="O33" t="str">
@@ -2465,7 +2472,7 @@
       <c r="M34" t="s">
         <v>94</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="5" t="s">
         <v>144</v>
       </c>
       <c r="O34" t="str">
@@ -2513,7 +2520,7 @@
       <c r="M35" t="s">
         <v>20</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="5" t="s">
         <v>145</v>
       </c>
       <c r="O35" t="str">
@@ -2561,7 +2568,7 @@
       <c r="M36" t="s">
         <v>94</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="5" t="s">
         <v>146</v>
       </c>
       <c r="O36" t="str">
@@ -2609,7 +2616,7 @@
       <c r="M37" t="s">
         <v>20</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="5" t="s">
         <v>147</v>
       </c>
       <c r="O37" t="str">
@@ -2657,7 +2664,7 @@
       <c r="M38" t="s">
         <v>94</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="5" t="s">
         <v>148</v>
       </c>
       <c r="O38" t="str">
@@ -2705,7 +2712,7 @@
       <c r="M39" t="s">
         <v>94</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="5" t="s">
         <v>149</v>
       </c>
       <c r="O39" t="str">
@@ -2753,7 +2760,7 @@
       <c r="M40" t="s">
         <v>94</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="5" t="s">
         <v>150</v>
       </c>
       <c r="O40" t="str">
@@ -2801,7 +2808,7 @@
       <c r="M41" t="s">
         <v>94</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="7" t="s">
         <v>151</v>
       </c>
       <c r="O41" t="str">

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="193">
   <si>
     <t>barID</t>
   </si>
@@ -470,6 +470,129 @@
   </si>
   <si>
     <t>4b7d9923f964a520f4c82fe3' , 'Alle Cocktails und Longdrinks 1,50€ günstiger' , '23:00:00' , '02:00:00' , false , false , false , false , false , true , false</t>
+  </si>
+  <si>
+    <t>4b8070a1f964a520807230e3</t>
+  </si>
+  <si>
+    <t>California Bounge</t>
+  </si>
+  <si>
+    <t>0711 2260874</t>
+  </si>
+  <si>
+    <t>4b9d0c58f964a5201a8b36e3</t>
+  </si>
+  <si>
+    <t>0711 69965676</t>
+  </si>
+  <si>
+    <t>Letzte Instanz</t>
+  </si>
+  <si>
+    <t>4b9179c3f964a52067bf33e3</t>
+  </si>
+  <si>
+    <t>Enchilada</t>
+  </si>
+  <si>
+    <t>0711 2365974</t>
+  </si>
+  <si>
+    <t>Alle Cocktails zum halben Preis und alle Jumbos für nur 5,90€</t>
+  </si>
+  <si>
+    <t>Alle Margaritas zum halben Preis und alle Jumbos für nur 5,90€</t>
+  </si>
+  <si>
+    <t>4b07024af964a5204bf522e3</t>
+  </si>
+  <si>
+    <t>Classic Rock Café</t>
+  </si>
+  <si>
+    <t>Zwei Bier zum Preis von einem.</t>
+  </si>
+  <si>
+    <t>Besitos</t>
+  </si>
+  <si>
+    <t>4b50a524f964a5201a2b27e3</t>
+  </si>
+  <si>
+    <t>0711 2348858</t>
+  </si>
+  <si>
+    <t>0711 4898430</t>
+  </si>
+  <si>
+    <t>Alle Jumbo-Cocktails der Karte für 5,50€</t>
+  </si>
+  <si>
+    <t>Café Felix</t>
+  </si>
+  <si>
+    <t>0711 9978784</t>
+  </si>
+  <si>
+    <t>4b7d87fcf964a520d9c42fe3</t>
+  </si>
+  <si>
+    <t>4c153503a9c220a1f1c5589d</t>
+  </si>
+  <si>
+    <t>Thirty Nine</t>
+  </si>
+  <si>
+    <t>0711 50437940</t>
+  </si>
+  <si>
+    <t>Auswahl an Happy Hour Cocktails für 4,90€</t>
+  </si>
+  <si>
+    <t>Biddy Earlys Irish Pub</t>
+  </si>
+  <si>
+    <t>4b59578af964a5209e8528e3</t>
+  </si>
+  <si>
+    <t>0711 6159853</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
+  </si>
+  <si>
+    <t>4b8070a1f964a520807230e3' , 'Alle Cocktails für 5€' , '17:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4b9d0c58f964a5201a8b36e3' , 'Auswahl an Happy Hour Cocktails für 4,90€' , '20:00:00' , '23:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4b9179c3f964a52067bf33e3' , 'Alle Cocktails zum halben Preis und alle Jumbos für nur 5,90€' , '18:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4b9179c3f964a52067bf33e3' , 'Alle Margaritas zum halben Preis und alle Jumbos für nur 5,90€' , '22:30:00' , '01:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>4b9179c3f964a52067bf33e3' , 'Alle Margaritas zum halben Preis und alle Jumbos für nur 5,90€' , '22:30:00' , '02:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>4b07024af964a5204bf522e3' , 'Zwei Bier zum Preis von einem.' , '18:00:00' , '20:00:00' , true , true , true , false , false , false , false</t>
+  </si>
+  <si>
+    <t>4b50a524f964a5201a2b27e3' , 'Alle Jumbo-Cocktails der Karte für 5,50€' , '17:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4b7d87fcf964a520d9c42fe3' , 'Alle Cocktails zum halben Preis' , '19:00:00' , '01:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4c153503a9c220a1f1c5589d' , 'Auswahl an Happy Hour Cocktails für 4,90€' , '20:00:00' , '03:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>4c153503a9c220a1f1c5589d' , 'Auswahl an Happy Hour Cocktails für 4,90€' , '20:00:00' , '05:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>4b59578af964a5209e8528e3' , 'Alle Cocktails für 4,90€' , '19:00:00' , '21:00:00' , true , true , true , true , true , true , true</t>
   </si>
 </sst>
 </file>
@@ -520,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -531,6 +654,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -835,12 +961,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P577"/>
+  <dimension ref="A1:P572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1162,7 @@
         <v>114</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O41" si="0">"'" &amp; C4 &amp; "' , '" &amp; D4 &amp; "' , '" &amp; E4 &amp; "' , '" &amp; F4 &amp; "' , " &amp; G4 &amp; " , " &amp; H4 &amp; " , " &amp; I4 &amp; " , " &amp; J4 &amp; " , " &amp; K4 &amp; " , " &amp; L4 &amp; " , " &amp; M4</f>
+        <f t="shared" ref="O4:O57" si="0">"'" &amp; C4 &amp; "' , '" &amp; D4 &amp; "' , '" &amp; E4 &amp; "' , '" &amp; F4 &amp; "' , " &amp; G4 &amp; " , " &amp; H4 &amp; " , " &amp; I4 &amp; " , " &amp; J4 &amp; " , " &amp; K4 &amp; " , " &amp; L4 &amp; " , " &amp; M4</f>
         <v>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '00:00:00' , '03:00:00' , true , false , false , false , true , true , false</v>
       </c>
     </row>
@@ -2808,7 +2934,7 @@
       <c r="M41" t="s">
         <v>94</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="10" t="s">
         <v>151</v>
       </c>
       <c r="O41" t="str">
@@ -2817,72 +2943,567 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b8070a1f964a520807230e3' , 'Alle Cocktails für 5€' , '17:00:00' , '20:00:00' , true , true , true , true , true , true , true</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b9d0c58f964a5201a8b36e3' , 'Auswahl an Happy Hour Cocktails für 4,90€' , '20:00:00' , '23:00:00' , true , true , true , true , true , true , true</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b9179c3f964a52067bf33e3' , 'Alle Cocktails zum halben Preis und alle Jumbos für nur 5,90€' , '18:00:00' , '20:00:00' , true , true , true , true , true , true , true</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b9179c3f964a52067bf33e3' , 'Alle Margaritas zum halben Preis und alle Jumbos für nur 5,90€' , '22:30:00' , '01:00:00' , true , true , true , true , false , false , true</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
+      <c r="A46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b9179c3f964a52067bf33e3' , 'Alle Margaritas zum halben Preis und alle Jumbos für nur 5,90€' , '22:30:00' , '02:00:00' , false , false , false , false , true , true , false</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b07024af964a5204bf522e3' , 'Zwei Bier zum Preis von einem.' , '18:00:00' , '20:00:00' , true , true , true , false , false , false , false</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b50a524f964a5201a2b27e3' , 'Alle Jumbo-Cocktails der Karte für 5,50€' , '17:00:00' , '20:00:00' , true , true , true , true , true , true , true</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b7d87fcf964a520d9c42fe3' , 'Alle Cocktails zum halben Preis' , '19:00:00' , '01:00:00' , true , true , true , true , true , true , true</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c153503a9c220a1f1c5589d' , 'Auswahl an Happy Hour Cocktails für 4,90€' , '20:00:00' , '03:00:00' , true , true , true , true , false , false , true</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="0"/>
+        <v>'4c153503a9c220a1f1c5589d' , 'Auswahl an Happy Hour Cocktails für 4,90€' , '20:00:00' , '05:00:00' , false , false , false , false , true , true , false</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b59578af964a5209e8528e3' , 'Alle Cocktails für 4,90€' , '19:00:00' , '21:00:00' , true , true , true , true , true , true , true</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
@@ -4408,21 +5029,6 @@
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B572" s="2"/>
-    </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B573" s="2"/>
-    </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B574" s="2"/>
-    </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B575" s="2"/>
-    </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B576" s="2"/>
-    </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B577" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="204">
   <si>
     <t>barID</t>
   </si>
@@ -593,6 +593,39 @@
   </si>
   <si>
     <t>4b59578af964a5209e8528e3' , 'Alle Cocktails für 4,90€' , '19:00:00' , '21:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4d02887137036dcb3eef03fb</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>0711 34225826</t>
+  </si>
+  <si>
+    <t>Alle Kaffeegetränke für 1,50€</t>
+  </si>
+  <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>Krug Bier für 2,50€</t>
+  </si>
+  <si>
+    <t>Ein halber Krug Bier für 2,50€</t>
+  </si>
+  <si>
+    <t>4d02887137036dcb3eef03fb' , 'Alle Kaffeegetränke für 1,50€' , '15:00:00' , '06:00:00' , true , false , false , false , false , false , false</t>
+  </si>
+  <si>
+    <t>4d02887137036dcb3eef03fb' , 'Alle Cocktails für 4,50€' , '15:00:00' , '06:00:00' , false , false , true , false , false , false , false</t>
+  </si>
+  <si>
+    <t>4d02887137036dcb3eef03fb' , 'Krug Bier für 2,50€' , '15:00:00' , '06:00:00' , false , false , false , true , false , false , false</t>
+  </si>
+  <si>
+    <t>4d02887137036dcb3eef03fb' , 'Ein halber Krug Bier für 2,50€' , '15:00:00' , '06:00:00' , false , false , false , false , true , false , false</t>
   </si>
 </sst>
 </file>
@@ -643,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -657,6 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -961,12 +995,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P572"/>
+  <dimension ref="A1:P569"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1196,7 @@
         <v>114</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O57" si="0">"'" &amp; C4 &amp; "' , '" &amp; D4 &amp; "' , '" &amp; E4 &amp; "' , '" &amp; F4 &amp; "' , " &amp; G4 &amp; " , " &amp; H4 &amp; " , " &amp; I4 &amp; " , " &amp; J4 &amp; " , " &amp; K4 &amp; " , " &amp; L4 &amp; " , " &amp; M4</f>
+        <f t="shared" ref="N4:O56" si="0">"'" &amp; C4 &amp; "' , '" &amp; D4 &amp; "' , '" &amp; E4 &amp; "' , '" &amp; F4 &amp; "' , " &amp; G4 &amp; " , " &amp; H4 &amp; " , " &amp; I4 &amp; " , " &amp; J4 &amp; " , " &amp; K4 &amp; " , " &amp; L4 &amp; " , " &amp; M4</f>
         <v>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '00:00:00' , '03:00:00' , true , false , false , false , true , true , false</v>
       </c>
     </row>
@@ -3462,7 +3496,7 @@
       <c r="M52" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="N52" s="10" t="s">
         <v>192</v>
       </c>
       <c r="O52" t="str">
@@ -3471,19 +3505,201 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
+      <c r="A53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" t="s">
+        <v>94</v>
+      </c>
+      <c r="J53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L53" t="s">
+        <v>94</v>
+      </c>
+      <c r="M53" t="s">
+        <v>94</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="0"/>
+        <v>'4d02887137036dcb3eef03fb' , 'Alle Kaffeegetränke für 1,50€' , '15:00:00' , '06:00:00' , true , false , false , false , false , false , false</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
+      <c r="A54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" t="s">
+        <v>94</v>
+      </c>
+      <c r="L54" t="s">
+        <v>94</v>
+      </c>
+      <c r="M54" t="s">
+        <v>94</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="0"/>
+        <v>'4d02887137036dcb3eef03fb' , 'Alle Cocktails für 4,50€' , '15:00:00' , '06:00:00' , false , false , true , false , false , false , false</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
+      <c r="A55" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" t="s">
+        <v>94</v>
+      </c>
+      <c r="M55" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="0"/>
+        <v>'4d02887137036dcb3eef03fb' , 'Krug Bier für 2,50€' , '15:00:00' , '06:00:00' , false , false , false , true , false , false , false</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
+      <c r="A56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" t="s">
+        <v>94</v>
+      </c>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>94</v>
+      </c>
+      <c r="M56" t="s">
+        <v>94</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="0"/>
+        <v>'4d02887137036dcb3eef03fb' , 'Ein halber Krug Bier für 2,50€' , '15:00:00' , '06:00:00' , false , false , false , false , true , false , false</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
@@ -5020,15 +5236,6 @@
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B569" s="2"/>
-    </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B570" s="2"/>
-    </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B571" s="2"/>
-    </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B572" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="226">
   <si>
     <t>barID</t>
   </si>
@@ -626,6 +626,72 @@
   </si>
   <si>
     <t>4d02887137036dcb3eef03fb' , 'Ein halber Krug Bier für 2,50€' , '15:00:00' , '06:00:00' , false , false , false , false , true , false , false</t>
+  </si>
+  <si>
+    <t>4ca097cf03133704c3f07bd5</t>
+  </si>
+  <si>
+    <t>Chicago Lounge</t>
+  </si>
+  <si>
+    <t>0711  51886904</t>
+  </si>
+  <si>
+    <t>La Concha</t>
+  </si>
+  <si>
+    <t>4babd691f964a520e1cd3ae3</t>
+  </si>
+  <si>
+    <t>0711 241851</t>
+  </si>
+  <si>
+    <t>Jeden Tag Caipirinha für 5,50€ und Ouzo für 0,99€</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>Joe Peña's</t>
+  </si>
+  <si>
+    <t>0711 2296211</t>
+  </si>
+  <si>
+    <t>4bb10b3ff964a52060753ce3</t>
+  </si>
+  <si>
+    <t>4ba3d1a2f964a520e96238e3</t>
+  </si>
+  <si>
+    <t>Jugendherberge International</t>
+  </si>
+  <si>
+    <t>0711 6647470</t>
+  </si>
+  <si>
+    <t>Alle alkoholischen Cocktails für 4€ und alle alkoholfreien Cocktails für 3€</t>
+  </si>
+  <si>
+    <t>4ca097cf03133704c3f07bd5' , 'Alle Cocktails für 5€' , '11:00:00' , '22:00:00' , true , true , true , true , false , false , false</t>
+  </si>
+  <si>
+    <t>4babd691f964a520e1cd3ae3' , 'Jeden Tag Caipirinha für 5,50€ und Ouzo für 0,99€' , '10:00:00' , '03:00:00' , true , true , true , true , false , false , true</t>
+  </si>
+  <si>
+    <t>4babd691f964a520e1cd3ae3' , 'Jeden Tag Caipirinha für 5,50€ und Ouzo für 0,99€' , '10:00:00' , '04:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>4b50a524f964a5201a2b27e3' , 'Jeden normalen Cocktail für 4,50€ und alle Jumbo-Cocktails für 5,90€' , '17:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>Jeden normalen Cocktail für 4,50€ und alle Jumbo-Cocktails für 5,90€</t>
+  </si>
+  <si>
+    <t>4bb10b3ff964a52060753ce3' , 'Alle Cocktails für 4,90€' , '20:00:00' , '23:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>4ba3d1a2f964a520e96238e3' , 'Alle alkoholischen Cocktails für 4€ und alle alkoholfreien Cocktails für 3€' , '19:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
   </si>
 </sst>
 </file>
@@ -998,16 +1064,16 @@
   <dimension ref="A1:P569"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
+      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1196,7 +1262,7 @@
         <v>114</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="N4:O56" si="0">"'" &amp; C4 &amp; "' , '" &amp; D4 &amp; "' , '" &amp; E4 &amp; "' , '" &amp; F4 &amp; "' , " &amp; G4 &amp; " , " &amp; H4 &amp; " , " &amp; I4 &amp; " , " &amp; J4 &amp; " , " &amp; K4 &amp; " , " &amp; L4 &amp; " , " &amp; M4</f>
+        <f t="shared" ref="N4:O63" si="0">"'" &amp; C4 &amp; "' , '" &amp; D4 &amp; "' , '" &amp; E4 &amp; "' , '" &amp; F4 &amp; "' , " &amp; G4 &amp; " , " &amp; H4 &amp; " , " &amp; I4 &amp; " , " &amp; J4 &amp; " , " &amp; K4 &amp; " , " &amp; L4 &amp; " , " &amp; M4</f>
         <v>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '00:00:00' , '03:00:00' , true , false , false , false , true , true , false</v>
       </c>
     </row>
@@ -3688,7 +3754,7 @@
       <c r="M56" t="s">
         <v>94</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="N56" s="10" t="s">
         <v>203</v>
       </c>
       <c r="O56" t="str">
@@ -3697,24 +3763,292 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s">
+        <v>94</v>
+      </c>
+      <c r="L57" t="s">
+        <v>94</v>
+      </c>
+      <c r="M57" t="s">
+        <v>94</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="0"/>
+        <v>'4ca097cf03133704c3f07bd5' , 'Alle Cocktails für 5€' , '11:00:00' , '22:00:00' , true , true , true , true , false , false , false</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
+      <c r="A58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s">
+        <v>94</v>
+      </c>
+      <c r="L58" t="s">
+        <v>94</v>
+      </c>
+      <c r="M58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="0"/>
+        <v>'4babd691f964a520e1cd3ae3' , 'Jeden Tag Caipirinha für 5,50€ und Ouzo für 0,99€' , '10:00:00' , '03:00:00' , true , true , true , true , false , false , true</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
+      <c r="A59" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="0"/>
+        <v>'4babd691f964a520e1cd3ae3' , 'Jeden Tag Caipirinha für 5,50€ und Ouzo für 0,99€' , '10:00:00' , '04:00:00' , false , false , false , false , true , true , false</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
+      <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b50a524f964a5201a2b27e3' , 'Jeden normalen Cocktail für 4,50€ und alle Jumbo-Cocktails für 5,90€' , '17:00:00' , '20:00:00' , true , true , true , true , true , true , true</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
+      <c r="A61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="0"/>
+        <v>'4bb10b3ff964a52060753ce3' , 'Alle Cocktails für 4,90€' , '20:00:00' , '23:00:00' , true , true , true , true , true , true , true</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
+      <c r="A62" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="0"/>
+        <v>'4ba3d1a2f964a520e96238e3' , 'Alle alkoholischen Cocktails für 4€ und alle alkoholfreien Cocktails für 3€' , '19:00:00' , '20:00:00' , true , true , true , true , true , true , true</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="231">
   <si>
     <t>barID</t>
   </si>
@@ -692,6 +692,21 @@
   </si>
   <si>
     <t>4ba3d1a2f964a520e96238e3' , 'Alle alkoholischen Cocktails für 4€ und alle alkoholfreien Cocktails für 3€' , '19:00:00' , '20:00:00' , true , true , true , true , true , true , true</t>
+  </si>
+  <si>
+    <t>Sophie's Brauhaus</t>
+  </si>
+  <si>
+    <t>4b7592cdf964a5203b152ee3</t>
+  </si>
+  <si>
+    <t>0711 610962</t>
+  </si>
+  <si>
+    <t>Ausgewählte Cocktails und Burger für jeweils 4€</t>
+  </si>
+  <si>
+    <t>4b7592cdf964a5203b152ee3' , 'Ausgewählte Cocktails und Burger für jeweils 4€' , '23:00:00' , '02:00:00' , false , false , false , false , true , true , false</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1078,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomLeft" activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1277,7 @@
         <v>114</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="N4:O63" si="0">"'" &amp; C4 &amp; "' , '" &amp; D4 &amp; "' , '" &amp; E4 &amp; "' , '" &amp; F4 &amp; "' , " &amp; G4 &amp; " , " &amp; H4 &amp; " , " &amp; I4 &amp; " , " &amp; J4 &amp; " , " &amp; K4 &amp; " , " &amp; L4 &amp; " , " &amp; M4</f>
+        <f t="shared" ref="N4:O64" si="0">"'" &amp; C4 &amp; "' , '" &amp; D4 &amp; "' , '" &amp; E4 &amp; "' , '" &amp; F4 &amp; "' , " &amp; G4 &amp; " , " &amp; H4 &amp; " , " &amp; I4 &amp; " , " &amp; J4 &amp; " , " &amp; K4 &amp; " , " &amp; L4 &amp; " , " &amp; M4</f>
         <v>'4b540ef4f964a5203db127e3' , 'Alle Longdrinks und Cocktails für 4,50€' , '00:00:00' , '03:00:00' , true , false , false , false , true , true , false</v>
       </c>
     </row>
@@ -4042,7 +4057,7 @@
       <c r="M62" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="7" t="s">
+      <c r="N62" s="10" t="s">
         <v>225</v>
       </c>
       <c r="O62" t="str">
@@ -4051,7 +4066,52 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
+      <c r="A63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" t="s">
+        <v>94</v>
+      </c>
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" t="s">
+        <v>94</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="0"/>
+        <v>'4b7592cdf964a5203b152ee3' , 'Ausgewählte Cocktails und Burger für jeweils 4€' , '23:00:00' , '02:00:00' , false , false , false , false , true , true , false</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>

--- a/documents/marketing/Daten - Happy Hour.xlsx
+++ b/documents/marketing/Daten - Happy Hour.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="235">
   <si>
     <t>barID</t>
   </si>
@@ -707,6 +707,18 @@
   </si>
   <si>
     <t>4b7592cdf964a5203b152ee3' , 'Ausgewählte Cocktails und Burger für jeweils 4€' , '23:00:00' , '02:00:00' , false , false , false , false , true , true , false</t>
+  </si>
+  <si>
+    <t>51c9d74d498e6c80b055d0be</t>
+  </si>
+  <si>
+    <t>Gigi Burger Bar</t>
+  </si>
+  <si>
+    <t>0711 99787660</t>
+  </si>
+  <si>
+    <t>51c9d74d498e6c80b055d0be' , 'Alle Cocktails für 5,50€' , '20:00:00' , '00:00:00' , true , true , true , true , true , true , true</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1090,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N68" sqref="N68"/>
+      <selection pane="bottomLeft" activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4105,7 +4117,7 @@
       <c r="M63" t="s">
         <v>94</v>
       </c>
-      <c r="N63" s="7" t="s">
+      <c r="N63" s="10" t="s">
         <v>230</v>
       </c>
       <c r="O63" t="str">
@@ -4114,7 +4126,52 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="0"/>
+        <v>'51c9d74d498e6c80b055d0be' , 'Alle Cocktails für 5,50€' , '20:00:00' , '00:00:00' , true , true , true , true , true , true , true</v>
+      </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
